--- a/funds/Interval/var_data_ANSWY_20240221.xlsx
+++ b/funds/Interval/var_data_ANSWY_20240221.xlsx
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2868,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="F89">
-        <v>2.49232295036701E-05</v>
+        <v>2.492322950367009E-05</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2888,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="F90">
-        <v>7.819432044875551E-05</v>
+        <v>7.819432044875549E-05</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2908,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="F91">
-        <v>-5.600796510584033E-05</v>
+        <v>-5.600796510584032E-05</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2928,7 +2928,7 @@
         <v>22</v>
       </c>
       <c r="F92">
-        <v>1.318535392081939E-05</v>
+        <v>1.318535392081938E-05</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2948,7 +2948,7 @@
         <v>23</v>
       </c>
       <c r="F93">
-        <v>-0.0002571217518343223</v>
+        <v>-0.0002571217518343221</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2968,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="F94">
-        <v>-1.826160653145405E-05</v>
+        <v>-1.826160653145404E-05</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2988,7 +2988,7 @@
         <v>25</v>
       </c>
       <c r="F95">
-        <v>5.821761431478483E-05</v>
+        <v>5.821761431478482E-05</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3028,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="F97">
-        <v>-5.68952212898153E-05</v>
+        <v>-5.689522128981529E-05</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3048,7 +3048,7 @@
         <v>28</v>
       </c>
       <c r="F98">
-        <v>3.184531516419799E-05</v>
+        <v>3.184531516419798E-05</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="F99">
-        <v>-2.526683984070191E-05</v>
+        <v>-2.52668398407019E-05</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3108,7 +3108,7 @@
         <v>31</v>
       </c>
       <c r="F101">
-        <v>-7.014764076302911E-05</v>
+        <v>-7.014764076302909E-05</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3128,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="F102">
-        <v>8.228834188802083E-06</v>
+        <v>8.228834188802082E-06</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3148,7 +3148,7 @@
         <v>33</v>
       </c>
       <c r="F103">
-        <v>-2.716771703982949E-05</v>
+        <v>-2.716771703982948E-05</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3168,7 +3168,7 @@
         <v>34</v>
       </c>
       <c r="F104">
-        <v>-8.871322180740591E-06</v>
+        <v>-8.871322180740589E-06</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3188,7 +3188,7 @@
         <v>35</v>
       </c>
       <c r="F105">
-        <v>3.63522318544136E-05</v>
+        <v>3.635223185441358E-05</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3208,7 +3208,7 @@
         <v>36</v>
       </c>
       <c r="F106">
-        <v>-3.791125367697542E-05</v>
+        <v>-3.79112536769754E-05</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3228,7 +3228,7 @@
         <v>37</v>
       </c>
       <c r="F107">
-        <v>2.383175334079843E-05</v>
+        <v>2.383175334079842E-05</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3248,7 +3248,7 @@
         <v>38</v>
       </c>
       <c r="F108">
-        <v>-3.556842025611523E-05</v>
+        <v>-3.556842025611522E-05</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3268,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="F109">
-        <v>-5.698490566049047E-05</v>
+        <v>-5.698490566049045E-05</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3288,7 +3288,7 @@
         <v>40</v>
       </c>
       <c r="F110">
-        <v>1.137120614198008E-05</v>
+        <v>1.137120614198007E-05</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3308,7 +3308,7 @@
         <v>41</v>
       </c>
       <c r="F111">
-        <v>-3.898896921162598E-05</v>
+        <v>-3.898896921162597E-05</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3328,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="F112">
-        <v>5.480899271776952E-05</v>
+        <v>5.480899271776951E-05</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="F113">
-        <v>-4.734132984222322E-05</v>
+        <v>-4.73413298422232E-05</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3388,7 +3388,7 @@
         <v>45</v>
       </c>
       <c r="F115">
-        <v>9.366398600925363E-05</v>
+        <v>9.36639860092536E-05</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3408,7 +3408,7 @@
         <v>46</v>
       </c>
       <c r="F116">
-        <v>-4.369901704690859E-05</v>
+        <v>-4.369901704690858E-05</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3428,7 +3428,7 @@
         <v>47</v>
       </c>
       <c r="F117">
-        <v>1.194065714407715E-05</v>
+        <v>1.194065714407714E-05</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3468,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="F119">
-        <v>5.769075510370409E-05</v>
+        <v>5.769075510370408E-05</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3508,7 +3508,7 @@
         <v>51</v>
       </c>
       <c r="F121">
-        <v>3.732487079230202E-05</v>
+        <v>3.732487079230201E-05</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3528,7 +3528,7 @@
         <v>52</v>
       </c>
       <c r="F122">
-        <v>1.622094144034032E-05</v>
+        <v>1.622094144034031E-05</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3568,7 +3568,7 @@
         <v>54</v>
       </c>
       <c r="F124">
-        <v>3.625035667704255E-07</v>
+        <v>3.625035667704254E-07</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3628,7 +3628,7 @@
         <v>57</v>
       </c>
       <c r="F127">
-        <v>5.016196296887747E-05</v>
+        <v>5.016196296887746E-05</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3648,7 +3648,7 @@
         <v>58</v>
       </c>
       <c r="F128">
-        <v>-2.234753750148408E-05</v>
+        <v>-2.234753750148407E-05</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3668,7 +3668,7 @@
         <v>59</v>
       </c>
       <c r="F129">
-        <v>4.08587378042775E-05</v>
+        <v>4.085873780427749E-05</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3708,7 +3708,7 @@
         <v>61</v>
       </c>
       <c r="F131">
-        <v>9.322527068591937E-06</v>
+        <v>9.322527068591933E-06</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3748,7 +3748,7 @@
         <v>63</v>
       </c>
       <c r="F133">
-        <v>6.717892878510187E-05</v>
+        <v>6.717892878510186E-05</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3768,7 +3768,7 @@
         <v>64</v>
       </c>
       <c r="F134">
-        <v>1.62769144722685E-05</v>
+        <v>1.627691447226849E-05</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3788,7 +3788,7 @@
         <v>65</v>
       </c>
       <c r="F135">
-        <v>-9.011510879277583E-05</v>
+        <v>-9.011510879277581E-05</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3808,7 +3808,7 @@
         <v>66</v>
       </c>
       <c r="F136">
-        <v>-2.497131505019526E-05</v>
+        <v>-2.497131505019525E-05</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3848,7 +3848,7 @@
         <v>68</v>
       </c>
       <c r="F138">
-        <v>6.072036044206658E-05</v>
+        <v>6.072036044206657E-05</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3868,7 +3868,7 @@
         <v>69</v>
       </c>
       <c r="F139">
-        <v>1.90237962597095E-05</v>
+        <v>1.902379625970949E-05</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3928,7 +3928,7 @@
         <v>72</v>
       </c>
       <c r="F142">
-        <v>-4.353717150548194E-05</v>
+        <v>-4.353717150548193E-05</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3948,7 +3948,7 @@
         <v>73</v>
       </c>
       <c r="F143">
-        <v>6.868886376582977E-05</v>
+        <v>6.868886376582975E-05</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3988,7 +3988,7 @@
         <v>75</v>
       </c>
       <c r="F145">
-        <v>7.043684866444485E-05</v>
+        <v>7.043684866444483E-05</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4008,7 +4008,7 @@
         <v>76</v>
       </c>
       <c r="F146">
-        <v>3.849386138674631E-05</v>
+        <v>3.84938613867463E-05</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4028,7 +4028,7 @@
         <v>77</v>
       </c>
       <c r="F147">
-        <v>3.891191944557196E-05</v>
+        <v>3.891191944557195E-05</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4048,7 +4048,7 @@
         <v>78</v>
       </c>
       <c r="F148">
-        <v>-5.872259540384279E-05</v>
+        <v>-5.872259540384277E-05</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4088,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>1.060485145490598E-05</v>
+        <v>1.060485145490597E-05</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4108,7 +4108,7 @@
         <v>81</v>
       </c>
       <c r="F151">
-        <v>6.081450306868367E-05</v>
+        <v>6.081450306868365E-05</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4188,7 +4188,7 @@
         <v>85</v>
       </c>
       <c r="F155">
-        <v>-3.378584266665183E-05</v>
+        <v>-3.378584266665182E-05</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4228,7 +4228,7 @@
         <v>87</v>
       </c>
       <c r="F157">
-        <v>-2.368357999858357E-05</v>
+        <v>-2.368357999858356E-05</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4248,7 +4248,7 @@
         <v>88</v>
       </c>
       <c r="F158">
-        <v>-6.853149256078848E-06</v>
+        <v>-6.853149256078847E-06</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4268,7 +4268,7 @@
         <v>89</v>
       </c>
       <c r="F159">
-        <v>1.224265294696694E-06</v>
+        <v>1.224265294696693E-06</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4308,7 +4308,7 @@
         <v>91</v>
       </c>
       <c r="F161">
-        <v>-1.058541522146379E-05</v>
+        <v>-1.058541522146378E-05</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4328,7 +4328,7 @@
         <v>92</v>
       </c>
       <c r="F162">
-        <v>7.448837281603231E-06</v>
+        <v>7.44883728160323E-06</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4348,7 +4348,7 @@
         <v>93</v>
       </c>
       <c r="F163">
-        <v>-1.105468166008891E-05</v>
+        <v>-1.10546816600889E-05</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4368,7 +4368,7 @@
         <v>94</v>
       </c>
       <c r="F164">
-        <v>9.08033860695349E-06</v>
+        <v>9.080338606953489E-06</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4388,7 +4388,7 @@
         <v>95</v>
       </c>
       <c r="F165">
-        <v>-4.885478132027428E-05</v>
+        <v>-4.885478132027426E-05</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4408,7 +4408,7 @@
         <v>96</v>
       </c>
       <c r="F166">
-        <v>2.539371439487092E-05</v>
+        <v>2.539371439487091E-05</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4448,7 +4448,7 @@
         <v>98</v>
       </c>
       <c r="F168">
-        <v>3.875272615459536E-05</v>
+        <v>3.875272615459535E-05</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4468,7 +4468,7 @@
         <v>99</v>
       </c>
       <c r="F169">
-        <v>1.288776282535434E-05</v>
+        <v>1.288776282535433E-05</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4488,7 +4488,7 @@
         <v>100</v>
       </c>
       <c r="F170">
-        <v>6.630198855993395E-05</v>
+        <v>6.630198855993392E-05</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4528,7 +4528,7 @@
         <v>102</v>
       </c>
       <c r="F172">
-        <v>2.640574184489605E-05</v>
+        <v>2.640574184489604E-05</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4568,7 +4568,7 @@
         <v>104</v>
       </c>
       <c r="F174">
-        <v>7.129755667471342E-05</v>
+        <v>7.12975566747134E-05</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4588,7 +4588,7 @@
         <v>19</v>
       </c>
       <c r="F175">
-        <v>5.459208973531424E-05</v>
+        <v>5.459208973531337E-05</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4608,7 +4608,7 @@
         <v>20</v>
       </c>
       <c r="F176">
-        <v>0.0002181563211952056</v>
+        <v>0.0002181563211952047</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4628,7 +4628,7 @@
         <v>21</v>
       </c>
       <c r="F177">
-        <v>-1.760001394468915E-05</v>
+        <v>-1.760001394469001E-05</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4668,7 +4668,7 @@
         <v>23</v>
       </c>
       <c r="F179">
-        <v>-0.0003315908193992981</v>
+        <v>-0.0003315908193992989</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4688,7 +4688,7 @@
         <v>24</v>
       </c>
       <c r="F180">
-        <v>-6.350760979719665E-05</v>
+        <v>-6.350760979719752E-05</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4708,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="F181">
-        <v>0.0001297438602017227</v>
+        <v>0.0001297438602017214</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4728,7 +4728,7 @@
         <v>26</v>
       </c>
       <c r="F182">
-        <v>-3.262162594439228E-05</v>
+        <v>-3.262162594439314E-05</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4748,7 +4748,7 @@
         <v>27</v>
       </c>
       <c r="F183">
-        <v>-2.183676995051514E-05</v>
+        <v>-2.183676995051557E-05</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4768,7 +4768,7 @@
         <v>28</v>
       </c>
       <c r="F184">
-        <v>5.665611735838297E-05</v>
+        <v>5.665611735838211E-05</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4788,7 +4788,7 @@
         <v>29</v>
       </c>
       <c r="F185">
-        <v>-3.036787397861854E-05</v>
+        <v>-3.03678739786194E-05</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4808,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="F186">
-        <v>-1.100865225693104E-05</v>
+        <v>-1.100865225693191E-05</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4828,7 +4828,7 @@
         <v>31</v>
       </c>
       <c r="F187">
-        <v>-7.599671676523576E-05</v>
+        <v>-7.599671676523662E-05</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4848,7 +4848,7 @@
         <v>32</v>
       </c>
       <c r="F188">
-        <v>1.823537126073192E-05</v>
+        <v>1.823537126073105E-05</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4868,7 +4868,7 @@
         <v>33</v>
       </c>
       <c r="F189">
-        <v>-2.108096146497505E-05</v>
+        <v>-2.108096146497592E-05</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4888,7 +4888,7 @@
         <v>34</v>
       </c>
       <c r="F190">
-        <v>-1.162877912361596E-06</v>
+        <v>-1.162877912362463E-06</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4908,7 +4908,7 @@
         <v>35</v>
       </c>
       <c r="F191">
-        <v>4.193713566708794E-05</v>
+        <v>4.193713566708708E-05</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4928,7 +4928,7 @@
         <v>36</v>
       </c>
       <c r="F192">
-        <v>-9.829834950136592E-05</v>
+        <v>-9.829834950136679E-05</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4948,7 +4948,7 @@
         <v>37</v>
       </c>
       <c r="F193">
-        <v>3.57399888956003E-05</v>
+        <v>3.573998889559943E-05</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4968,7 +4968,7 @@
         <v>38</v>
       </c>
       <c r="F194">
-        <v>4.575257732065269E-05</v>
+        <v>4.575257732065182E-05</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4988,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="F195">
-        <v>-2.249683332787881E-05</v>
+        <v>-2.249683332787968E-05</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5008,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="F196">
-        <v>5.993896916906038E-05</v>
+        <v>5.993896916905951E-05</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5028,7 +5028,7 @@
         <v>41</v>
       </c>
       <c r="F197">
-        <v>-3.319713867535375E-05</v>
+        <v>-3.319713867535462E-05</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5048,7 +5048,7 @@
         <v>42</v>
       </c>
       <c r="F198">
-        <v>4.809889369907601E-05</v>
+        <v>4.809889369907514E-05</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5068,7 +5068,7 @@
         <v>43</v>
       </c>
       <c r="F199">
-        <v>-4.419476832000137E-05</v>
+        <v>-4.419476832000224E-05</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5088,7 +5088,7 @@
         <v>44</v>
       </c>
       <c r="F200">
-        <v>-1.576121837937924E-05</v>
+        <v>-1.576121837938097E-05</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5108,7 +5108,7 @@
         <v>45</v>
       </c>
       <c r="F201">
-        <v>0.0001518589778323701</v>
+        <v>0.0001518589778323693</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5128,7 +5128,7 @@
         <v>46</v>
       </c>
       <c r="F202">
-        <v>-4.180836299140251E-05</v>
+        <v>-4.180836299140338E-05</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5148,7 +5148,7 @@
         <v>47</v>
       </c>
       <c r="F203">
-        <v>1.088857312434846E-05</v>
+        <v>1.088857312434759E-05</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5168,7 +5168,7 @@
         <v>48</v>
       </c>
       <c r="F204">
-        <v>2.670324383312111E-05</v>
+        <v>2.670324383312024E-05</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5188,7 +5188,7 @@
         <v>49</v>
       </c>
       <c r="F205">
-        <v>6.919450879647833E-05</v>
+        <v>6.919450879647746E-05</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5208,7 +5208,7 @@
         <v>50</v>
       </c>
       <c r="F206">
-        <v>-0.000313976598137007</v>
+        <v>-0.0003139765981370079</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5228,7 +5228,7 @@
         <v>51</v>
       </c>
       <c r="F207">
-        <v>1.736721271987937E-05</v>
+        <v>1.736721271987851E-05</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5248,7 +5248,7 @@
         <v>52</v>
       </c>
       <c r="F208">
-        <v>-1.435969937476928E-05</v>
+        <v>-1.435969937477015E-05</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5268,7 +5268,7 @@
         <v>53</v>
       </c>
       <c r="F209">
-        <v>-0.0004301360395466093</v>
+        <v>-0.0004301360395466101</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5288,7 +5288,7 @@
         <v>54</v>
       </c>
       <c r="F210">
-        <v>3.545449139422466E-07</v>
+        <v>3.545449139413792E-07</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5308,7 +5308,7 @@
         <v>55</v>
       </c>
       <c r="F211">
-        <v>0.0004494678987834403</v>
+        <v>0.0004494678987834394</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5328,7 +5328,7 @@
         <v>56</v>
       </c>
       <c r="F212">
-        <v>4.944971313648478E-05</v>
+        <v>4.944971313648391E-05</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5348,7 +5348,7 @@
         <v>57</v>
       </c>
       <c r="F213">
-        <v>0.0001431375153065875</v>
+        <v>0.0001431375153065867</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5368,7 +5368,7 @@
         <v>58</v>
       </c>
       <c r="F214">
-        <v>7.103404110914927E-06</v>
+        <v>7.10340411091406E-06</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5388,7 +5388,7 @@
         <v>59</v>
       </c>
       <c r="F215">
-        <v>7.421676604617376E-05</v>
+        <v>7.421676604617289E-05</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5408,7 +5408,7 @@
         <v>60</v>
       </c>
       <c r="F216">
-        <v>-2.663388505404511E-05</v>
+        <v>-2.663388505404598E-05</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5428,7 +5428,7 @@
         <v>61</v>
       </c>
       <c r="F217">
-        <v>2.578663257576073E-06</v>
+        <v>2.578663257575206E-06</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5448,7 +5448,7 @@
         <v>62</v>
       </c>
       <c r="F218">
-        <v>4.909145599481766E-05</v>
+        <v>4.90914559948168E-05</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5468,7 +5468,7 @@
         <v>63</v>
       </c>
       <c r="F219">
-        <v>4.774184634117901E-05</v>
+        <v>4.774184634117815E-05</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5488,7 +5488,7 @@
         <v>64</v>
       </c>
       <c r="F220">
-        <v>7.525189837114758E-06</v>
+        <v>7.52518983711389E-06</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5508,7 +5508,7 @@
         <v>65</v>
       </c>
       <c r="F221">
-        <v>-7.163853789699144E-05</v>
+        <v>-7.163853789699231E-05</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5528,7 +5528,7 @@
         <v>66</v>
       </c>
       <c r="F222">
-        <v>-3.680515540290408E-06</v>
+        <v>-3.680515540291276E-06</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5548,7 +5548,7 @@
         <v>67</v>
       </c>
       <c r="F223">
-        <v>-8.786499986691149E-06</v>
+        <v>-8.786499986692016E-06</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5568,7 +5568,7 @@
         <v>68</v>
       </c>
       <c r="F224">
-        <v>3.177471765080818E-05</v>
+        <v>3.177471765080731E-05</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5588,7 +5588,7 @@
         <v>69</v>
       </c>
       <c r="F225">
-        <v>7.359422332492123E-05</v>
+        <v>7.359422332492037E-05</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5608,7 +5608,7 @@
         <v>70</v>
       </c>
       <c r="F226">
-        <v>-1.725754144644509E-05</v>
+        <v>-1.725754144644596E-05</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5628,7 +5628,7 @@
         <v>71</v>
       </c>
       <c r="F227">
-        <v>0.0002108852477918249</v>
+        <v>0.000210885247791824</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5648,7 +5648,7 @@
         <v>72</v>
       </c>
       <c r="F228">
-        <v>1.607171010062575E-05</v>
+        <v>1.607171010062488E-05</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5668,7 +5668,7 @@
         <v>73</v>
       </c>
       <c r="F229">
-        <v>5.117498378915059E-05</v>
+        <v>5.117498378914972E-05</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5688,7 +5688,7 @@
         <v>74</v>
       </c>
       <c r="F230">
-        <v>1.454636044752365E-05</v>
+        <v>1.454636044752279E-05</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5708,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="F231">
-        <v>4.302098487538996E-05</v>
+        <v>4.302098487538909E-05</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5728,7 +5728,7 @@
         <v>76</v>
       </c>
       <c r="F232">
-        <v>3.646048776725658E-05</v>
+        <v>3.646048776725572E-05</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5748,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="F233">
-        <v>0.0002629978842388614</v>
+        <v>0.0002629978842388606</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5768,7 +5768,7 @@
         <v>78</v>
       </c>
       <c r="F234">
-        <v>-6.627270709251955E-05</v>
+        <v>-6.627270709252042E-05</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5788,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="F235">
-        <v>-2.353018059513294E-05</v>
+        <v>-2.35301805951338E-05</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5808,7 +5808,7 @@
         <v>80</v>
       </c>
       <c r="F236">
-        <v>1.603232336892108E-05</v>
+        <v>1.603232336891977E-05</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5828,7 +5828,7 @@
         <v>81</v>
       </c>
       <c r="F237">
-        <v>6.025405637212098E-05</v>
+        <v>6.025405637212012E-05</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5848,7 +5848,7 @@
         <v>82</v>
       </c>
       <c r="F238">
-        <v>2.896104799465608E-06</v>
+        <v>2.896104799464741E-06</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5868,7 +5868,7 @@
         <v>83</v>
       </c>
       <c r="F239">
-        <v>-4.519463828379488E-06</v>
+        <v>-4.519463828380355E-06</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5888,7 +5888,7 @@
         <v>84</v>
       </c>
       <c r="F240">
-        <v>-1.115998069828924E-06</v>
+        <v>-1.115998069829791E-06</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5908,7 +5908,7 @@
         <v>85</v>
       </c>
       <c r="F241">
-        <v>2.54738348321056E-05</v>
+        <v>2.547383483210474E-05</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5928,7 +5928,7 @@
         <v>86</v>
       </c>
       <c r="F242">
-        <v>1.122262622880576E-05</v>
+        <v>1.122262622880489E-05</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5948,7 +5948,7 @@
         <v>87</v>
       </c>
       <c r="F243">
-        <v>1.275811200077831E-06</v>
+        <v>1.275811200076964E-06</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5968,7 +5968,7 @@
         <v>88</v>
       </c>
       <c r="F244">
-        <v>-9.2457944691135E-06</v>
+        <v>-9.245794469114367E-06</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5988,7 +5988,7 @@
         <v>89</v>
       </c>
       <c r="F245">
-        <v>-5.929973057743759E-06</v>
+        <v>-5.929973057744627E-06</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6008,7 +6008,7 @@
         <v>90</v>
       </c>
       <c r="F246">
-        <v>5.337198258189386E-05</v>
+        <v>5.337198258189299E-05</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6028,7 +6028,7 @@
         <v>91</v>
       </c>
       <c r="F247">
-        <v>2.169834212886832E-05</v>
+        <v>2.169834212886745E-05</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6048,7 +6048,7 @@
         <v>92</v>
       </c>
       <c r="F248">
-        <v>2.024389476791219E-05</v>
+        <v>2.024389476791176E-05</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6088,7 +6088,7 @@
         <v>94</v>
       </c>
       <c r="F250">
-        <v>-3.182151097189459E-06</v>
+        <v>-3.182151097190326E-06</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6108,7 +6108,7 @@
         <v>95</v>
       </c>
       <c r="F251">
-        <v>-9.821090022207879E-05</v>
+        <v>-9.821090022207966E-05</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6128,7 +6128,7 @@
         <v>96</v>
       </c>
       <c r="F252">
-        <v>2.432877560130768E-05</v>
+        <v>2.432877560130681E-05</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6148,7 +6148,7 @@
         <v>97</v>
       </c>
       <c r="F253">
-        <v>1.842449803834967E-14</v>
+        <v>1.842363067661168E-14</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6168,7 +6168,7 @@
         <v>98</v>
       </c>
       <c r="F254">
-        <v>-2.654499967571708E-05</v>
+        <v>-2.654499967571795E-05</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6188,7 +6188,7 @@
         <v>99</v>
       </c>
       <c r="F255">
-        <v>2.041972133280407E-05</v>
+        <v>2.04197213328032E-05</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6208,7 +6208,7 @@
         <v>100</v>
       </c>
       <c r="F256">
-        <v>0.0001351497453399271</v>
+        <v>0.0001351497453399263</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6228,7 +6228,7 @@
         <v>101</v>
       </c>
       <c r="F257">
-        <v>1.002931336564847E-05</v>
+        <v>1.002931336564761E-05</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6248,7 +6248,7 @@
         <v>102</v>
       </c>
       <c r="F258">
-        <v>3.208653181202949E-05</v>
+        <v>3.208653181202862E-05</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6268,7 +6268,7 @@
         <v>103</v>
       </c>
       <c r="F259">
-        <v>7.528402839096417E-06</v>
+        <v>7.52840283909555E-06</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6288,7 +6288,7 @@
         <v>104</v>
       </c>
       <c r="F260">
-        <v>0.0002343288260004748</v>
+        <v>0.000234328826000474</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -8088,7 +8088,7 @@
         <v>21</v>
       </c>
       <c r="F350">
-        <v>-7.921312019671134E-05</v>
+        <v>-7.921312019671132E-05</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8128,7 +8128,7 @@
         <v>23</v>
       </c>
       <c r="F352">
-        <v>-0.0003636521375977879</v>
+        <v>-0.0003636521375977878</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8168,7 +8168,7 @@
         <v>25</v>
       </c>
       <c r="F354">
-        <v>8.233826870103429E-05</v>
+        <v>8.233826870103428E-05</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8208,7 +8208,7 @@
         <v>27</v>
       </c>
       <c r="F356">
-        <v>-8.046798333293972E-05</v>
+        <v>-8.046798333293971E-05</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8228,7 +8228,7 @@
         <v>28</v>
       </c>
       <c r="F357">
-        <v>4.503942917827458E-05</v>
+        <v>4.503942917827457E-05</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8248,7 +8248,7 @@
         <v>29</v>
       </c>
       <c r="F358">
-        <v>-3.573536759477571E-05</v>
+        <v>-3.57353675947757E-05</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8268,7 +8268,7 @@
         <v>30</v>
       </c>
       <c r="F359">
-        <v>-4.206723388070075E-05</v>
+        <v>-4.206723388070074E-05</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8288,7 +8288,7 @@
         <v>31</v>
       </c>
       <c r="F360">
-        <v>-9.921112985942292E-05</v>
+        <v>-9.921112985942291E-05</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8368,7 +8368,7 @@
         <v>35</v>
       </c>
       <c r="F364">
-        <v>5.14136463601337E-05</v>
+        <v>5.141364636013369E-05</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8388,7 +8388,7 @@
         <v>36</v>
       </c>
       <c r="F365">
-        <v>-5.361860029456985E-05</v>
+        <v>-5.361860029456984E-05</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8428,7 +8428,7 @@
         <v>38</v>
       </c>
       <c r="F367">
-        <v>-5.030508685024515E-05</v>
+        <v>-5.030508685024514E-05</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8448,7 +8448,7 @@
         <v>39</v>
       </c>
       <c r="F368">
-        <v>-8.059482562797104E-05</v>
+        <v>-8.059482562797101E-05</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8508,7 +8508,7 @@
         <v>42</v>
       </c>
       <c r="F371">
-        <v>7.751739096053369E-05</v>
+        <v>7.751739096053368E-05</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8548,7 +8548,7 @@
         <v>44</v>
       </c>
       <c r="F373">
-        <v>2.079164947435397E-05</v>
+        <v>2.079164947435396E-05</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8588,7 +8588,7 @@
         <v>46</v>
       </c>
       <c r="F375">
-        <v>-6.180434306573209E-05</v>
+        <v>-6.180434306573208E-05</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8608,7 +8608,7 @@
         <v>47</v>
       </c>
       <c r="F376">
-        <v>1.68878963517793E-05</v>
+        <v>1.688789635177929E-05</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8628,7 +8628,7 @@
         <v>48</v>
       </c>
       <c r="F377">
-        <v>3.384129849277928E-05</v>
+        <v>3.384129849277927E-05</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8648,7 +8648,7 @@
         <v>49</v>
       </c>
       <c r="F378">
-        <v>8.159312179317544E-05</v>
+        <v>8.159312179317543E-05</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8688,7 +8688,7 @@
         <v>51</v>
       </c>
       <c r="F380">
-        <v>5.278926793376811E-05</v>
+        <v>5.27892679337681E-05</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8748,7 +8748,7 @@
         <v>54</v>
       </c>
       <c r="F383">
-        <v>5.126956237752687E-07</v>
+        <v>5.126956237752686E-07</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8788,7 +8788,7 @@
         <v>56</v>
       </c>
       <c r="F385">
-        <v>3.588459039159062E-05</v>
+        <v>3.588459039159061E-05</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8808,7 +8808,7 @@
         <v>57</v>
       </c>
       <c r="F386">
-        <v>7.094500924016487E-05</v>
+        <v>7.094500924016486E-05</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8828,7 +8828,7 @@
         <v>58</v>
       </c>
       <c r="F387">
-        <v>-3.160654329898124E-05</v>
+        <v>-3.160654329898123E-05</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8848,7 +8848,7 @@
         <v>59</v>
       </c>
       <c r="F388">
-        <v>5.778728262417537E-05</v>
+        <v>5.778728262417535E-05</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8928,7 +8928,7 @@
         <v>63</v>
       </c>
       <c r="F392">
-        <v>9.501242458076167E-05</v>
+        <v>9.501242458076165E-05</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8968,7 +8968,7 @@
         <v>65</v>
       </c>
       <c r="F394">
-        <v>-0.000127451496065825</v>
+        <v>-0.0001274514960658249</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8988,7 +8988,7 @@
         <v>66</v>
       </c>
       <c r="F395">
-        <v>-3.531740131609957E-05</v>
+        <v>-3.531740131609956E-05</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9028,7 +9028,7 @@
         <v>68</v>
       </c>
       <c r="F397">
-        <v>8.587794969868493E-05</v>
+        <v>8.587794969868491E-05</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9088,7 +9088,7 @@
         <v>71</v>
       </c>
       <c r="F400">
-        <v>0.0001486319063801319</v>
+        <v>0.0001486319063801318</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9108,7 +9108,7 @@
         <v>72</v>
       </c>
       <c r="F401">
-        <v>-6.157544186744532E-05</v>
+        <v>-6.157544186744531E-05</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9128,7 +9128,7 @@
         <v>73</v>
       </c>
       <c r="F402">
-        <v>9.71479540700333E-05</v>
+        <v>9.714795407003327E-05</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9148,7 +9148,7 @@
         <v>74</v>
       </c>
       <c r="F403">
-        <v>1.525992647438968E-05</v>
+        <v>1.525992647438967E-05</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9168,7 +9168,7 @@
         <v>75</v>
       </c>
       <c r="F404">
-        <v>9.962016204285239E-05</v>
+        <v>9.962016204285237E-05</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9208,7 +9208,7 @@
         <v>77</v>
       </c>
       <c r="F406">
-        <v>5.503386074287896E-05</v>
+        <v>5.503386074287895E-05</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9228,7 +9228,7 @@
         <v>78</v>
       </c>
       <c r="F407">
-        <v>-8.30524729687491E-05</v>
+        <v>-8.305247296874909E-05</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -9248,7 +9248,7 @@
         <v>79</v>
       </c>
       <c r="F408">
-        <v>-2.493461070329222E-05</v>
+        <v>-2.493461070329221E-05</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9288,7 +9288,7 @@
         <v>81</v>
       </c>
       <c r="F410">
-        <v>8.601109738908504E-05</v>
+        <v>8.601109738908502E-05</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -9348,7 +9348,7 @@
         <v>84</v>
       </c>
       <c r="F413">
-        <v>-5.021438652670882E-05</v>
+        <v>-5.021438652670881E-05</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -9368,7 +9368,7 @@
         <v>85</v>
       </c>
       <c r="F414">
-        <v>-4.778395378305925E-05</v>
+        <v>-4.778395378305924E-05</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -9388,7 +9388,7 @@
         <v>86</v>
       </c>
       <c r="F415">
-        <v>2.594675684927786E-05</v>
+        <v>2.594675684927785E-05</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -9428,7 +9428,7 @@
         <v>88</v>
       </c>
       <c r="F417">
-        <v>-9.692538100998943E-06</v>
+        <v>-9.692538100998941E-06</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -9468,7 +9468,7 @@
         <v>90</v>
       </c>
       <c r="F419">
-        <v>2.350637289867404E-05</v>
+        <v>2.350637289867403E-05</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -9568,7 +9568,7 @@
         <v>95</v>
       </c>
       <c r="F424">
-        <v>-6.9096237608236E-05</v>
+        <v>-6.909623760823599E-05</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9608,7 +9608,7 @@
         <v>97</v>
       </c>
       <c r="F426">
-        <v>2.285536177407577E-05</v>
+        <v>2.285536177407576E-05</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9628,7 +9628,7 @@
         <v>98</v>
       </c>
       <c r="F427">
-        <v>5.480871067237007E-05</v>
+        <v>5.480871067237006E-05</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9668,7 +9668,7 @@
         <v>100</v>
       </c>
       <c r="F429">
-        <v>9.377215149941891E-05</v>
+        <v>9.37721514994189E-05</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9708,7 +9708,7 @@
         <v>102</v>
       </c>
       <c r="F431">
-        <v>3.734613815535618E-05</v>
+        <v>3.734613815535617E-05</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9728,7 +9728,7 @@
         <v>103</v>
       </c>
       <c r="F432">
-        <v>-1.656120722348639E-05</v>
+        <v>-1.656120722348638E-05</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9768,7 +9768,7 @@
         <v>19</v>
       </c>
       <c r="F434">
-        <v>7.721062098615949E-05</v>
+        <v>7.721062098615863E-05</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9788,7 +9788,7 @@
         <v>20</v>
       </c>
       <c r="F435">
-        <v>0.0003085425949657678</v>
+        <v>0.0003085425949657669</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9808,7 +9808,7 @@
         <v>21</v>
       </c>
       <c r="F436">
-        <v>-2.489203129286792E-05</v>
+        <v>-2.489203129286879E-05</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9848,7 +9848,7 @@
         <v>23</v>
       </c>
       <c r="F438">
-        <v>-0.0004689751427956025</v>
+        <v>-0.0004689751427956034</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9868,7 +9868,7 @@
         <v>24</v>
       </c>
       <c r="F439">
-        <v>-8.982000897130634E-05</v>
+        <v>-8.982000897130721E-05</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9888,7 +9888,7 @@
         <v>25</v>
       </c>
       <c r="F440">
-        <v>0.000183499185759075</v>
+        <v>0.0001834991857590732</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9908,7 +9908,7 @@
         <v>26</v>
       </c>
       <c r="F441">
-        <v>-4.613738013980843E-05</v>
+        <v>-4.61373801398093E-05</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9948,7 +9948,7 @@
         <v>28</v>
       </c>
       <c r="F443">
-        <v>8.012981413817871E-05</v>
+        <v>8.012981413817784E-05</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9968,7 +9968,7 @@
         <v>29</v>
       </c>
       <c r="F444">
-        <v>-4.294985627563939E-05</v>
+        <v>-4.294985627564026E-05</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9988,7 +9988,7 @@
         <v>30</v>
       </c>
       <c r="F445">
-        <v>-1.556974428162418E-05</v>
+        <v>-1.556974428162505E-05</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10008,7 +10008,7 @@
         <v>31</v>
       </c>
       <c r="F446">
-        <v>-0.0001074835882414931</v>
+        <v>-0.0001074835882414939</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10028,7 +10028,7 @@
         <v>32</v>
       </c>
       <c r="F447">
-        <v>2.579062911459672E-05</v>
+        <v>2.579062911459585E-05</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10048,7 +10048,7 @@
         <v>33</v>
       </c>
       <c r="F448">
-        <v>-2.981520094921634E-05</v>
+        <v>-2.981520094921721E-05</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10068,7 +10068,7 @@
         <v>34</v>
       </c>
       <c r="F449">
-        <v>-1.644680139190058E-06</v>
+        <v>-1.644680139190925E-06</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10088,7 +10088,7 @@
         <v>35</v>
       </c>
       <c r="F450">
-        <v>5.931248103774409E-05</v>
+        <v>5.931248103774323E-05</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10108,7 +10108,7 @@
         <v>36</v>
       </c>
       <c r="F451">
-        <v>-0.0001390252075660235</v>
+        <v>-0.0001390252075660244</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10128,7 +10128,7 @@
         <v>37</v>
       </c>
       <c r="F452">
-        <v>5.054773960929196E-05</v>
+        <v>5.054773960929109E-05</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10148,7 +10148,7 @@
         <v>38</v>
       </c>
       <c r="F453">
-        <v>6.470873204840379E-05</v>
+        <v>6.470873204840293E-05</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -10168,7 +10168,7 @@
         <v>39</v>
       </c>
       <c r="F454">
-        <v>-3.181769519887152E-05</v>
+        <v>-3.181769519887238E-05</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -10188,7 +10188,7 @@
         <v>40</v>
       </c>
       <c r="F455">
-        <v>8.477281330045421E-05</v>
+        <v>8.477281330045335E-05</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -10208,7 +10208,7 @@
         <v>41</v>
       </c>
       <c r="F456">
-        <v>-4.695133863743053E-05</v>
+        <v>-4.69513386374314E-05</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -10228,7 +10228,7 @@
         <v>42</v>
       </c>
       <c r="F457">
-        <v>6.802717150522671E-05</v>
+        <v>6.802717150522584E-05</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -10248,7 +10248,7 @@
         <v>43</v>
       </c>
       <c r="F458">
-        <v>-6.250549343084482E-05</v>
+        <v>-6.250549343084569E-05</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -10268,7 +10268,7 @@
         <v>44</v>
       </c>
       <c r="F459">
-        <v>-2.229138808333871E-05</v>
+        <v>-2.229138808334044E-05</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -10288,7 +10288,7 @@
         <v>45</v>
       </c>
       <c r="F460">
-        <v>0.0002147770132561178</v>
+        <v>0.0002147770132561169</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -10308,7 +10308,7 @@
         <v>46</v>
       </c>
       <c r="F461">
-        <v>-5.913035541654354E-05</v>
+        <v>-5.913035541654441E-05</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -10328,7 +10328,7 @@
         <v>47</v>
       </c>
       <c r="F462">
-        <v>1.539991410221334E-05</v>
+        <v>1.539991410221247E-05</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -10348,7 +10348,7 @@
         <v>48</v>
       </c>
       <c r="F463">
-        <v>3.776690082201405E-05</v>
+        <v>3.776690082201318E-05</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -10368,7 +10368,7 @@
         <v>49</v>
       </c>
       <c r="F464">
-        <v>9.786309736284794E-05</v>
+        <v>9.786309736284707E-05</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -10388,7 +10388,7 @@
         <v>50</v>
       </c>
       <c r="F465">
-        <v>-0.0004440630178257953</v>
+        <v>-0.0004440630178257961</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -10408,7 +10408,7 @@
         <v>51</v>
       </c>
       <c r="F466">
-        <v>2.456277613482188E-05</v>
+        <v>2.456277613482102E-05</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10428,7 +10428,7 @@
         <v>52</v>
       </c>
       <c r="F467">
-        <v>-2.030919335156527E-05</v>
+        <v>-2.030919335156613E-05</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -10448,7 +10448,7 @@
         <v>53</v>
       </c>
       <c r="F468">
-        <v>-0.0006083495041670417</v>
+        <v>-0.0006083495041670425</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -10468,7 +10468,7 @@
         <v>54</v>
       </c>
       <c r="F469">
-        <v>5.01439551145455E-07</v>
+        <v>5.014395511445877E-07</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -10488,7 +10488,7 @@
         <v>55</v>
       </c>
       <c r="F470">
-        <v>0.0006356909168832364</v>
+        <v>0.0006356909168832355</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -10508,7 +10508,7 @@
         <v>56</v>
       </c>
       <c r="F471">
-        <v>6.993766088396556E-05</v>
+        <v>6.993766088396469E-05</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -10528,7 +10528,7 @@
         <v>57</v>
       </c>
       <c r="F472">
-        <v>0.0002024420845001739</v>
+        <v>0.0002024420845001731</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -10548,7 +10548,7 @@
         <v>58</v>
       </c>
       <c r="F473">
-        <v>1.004647825680448E-05</v>
+        <v>1.004647825680362E-05</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -10568,7 +10568,7 @@
         <v>59</v>
       </c>
       <c r="F474">
-        <v>0.0001049661704066035</v>
+        <v>0.0001049661704066026</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -10588,7 +10588,7 @@
         <v>60</v>
       </c>
       <c r="F475">
-        <v>-3.766880539410062E-05</v>
+        <v>-3.766880539410149E-05</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -10608,7 +10608,7 @@
         <v>61</v>
       </c>
       <c r="F476">
-        <v>3.647052025246809E-06</v>
+        <v>3.647052025245942E-06</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -10628,7 +10628,7 @@
         <v>62</v>
       </c>
       <c r="F477">
-        <v>6.943097105921361E-05</v>
+        <v>6.943097105921274E-05</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -10648,7 +10648,7 @@
         <v>63</v>
       </c>
       <c r="F478">
-        <v>6.75221927004515E-05</v>
+        <v>6.752219270045063E-05</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -10668,7 +10668,7 @@
         <v>64</v>
       </c>
       <c r="F479">
-        <v>1.064301775549181E-05</v>
+        <v>1.064301775549094E-05</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -10688,7 +10688,7 @@
         <v>65</v>
       </c>
       <c r="F480">
-        <v>-0.0001013197337633555</v>
+        <v>-0.0001013197337633564</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -10708,7 +10708,7 @@
         <v>66</v>
       </c>
       <c r="F481">
-        <v>-5.205422466749397E-06</v>
+        <v>-5.205422466750265E-06</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -10728,7 +10728,7 @@
         <v>67</v>
       </c>
       <c r="F482">
-        <v>-1.24269124621634E-05</v>
+        <v>-1.242691246216426E-05</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -10748,7 +10748,7 @@
         <v>68</v>
       </c>
       <c r="F483">
-        <v>4.493958178508357E-05</v>
+        <v>4.49395817850827E-05</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -10768,7 +10768,7 @@
         <v>69</v>
       </c>
       <c r="F484">
-        <v>0.0001040856965077042</v>
+        <v>0.0001040856965077034</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -10788,7 +10788,7 @@
         <v>70</v>
       </c>
       <c r="F485">
-        <v>-2.440766598667959E-05</v>
+        <v>-2.440766598668046E-05</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -10808,7 +10808,7 @@
         <v>71</v>
       </c>
       <c r="F486">
-        <v>0.0002982589788698671</v>
+        <v>0.0002982589788698663</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -10828,7 +10828,7 @@
         <v>72</v>
       </c>
       <c r="F487">
-        <v>2.273052237412605E-05</v>
+        <v>2.273052237412518E-05</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -10848,7 +10848,7 @@
         <v>73</v>
       </c>
       <c r="F488">
-        <v>7.237774367082044E-05</v>
+        <v>7.237774367081957E-05</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10868,7 +10868,7 @@
         <v>74</v>
       </c>
       <c r="F489">
-        <v>2.057319162331473E-05</v>
+        <v>2.057319162331386E-05</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10888,7 +10888,7 @@
         <v>75</v>
       </c>
       <c r="F490">
-        <v>6.084538939194178E-05</v>
+        <v>6.084538939194091E-05</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10908,7 +10908,7 @@
         <v>76</v>
       </c>
       <c r="F491">
-        <v>5.156675473712638E-05</v>
+        <v>5.156675473712551E-05</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10928,7 +10928,7 @@
         <v>77</v>
       </c>
       <c r="F492">
-        <v>0.0003719628623593983</v>
+        <v>0.0003719628623593974</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10948,7 +10948,7 @@
         <v>78</v>
       </c>
       <c r="F493">
-        <v>-9.373073816841462E-05</v>
+        <v>-9.373073816841548E-05</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10968,7 +10968,7 @@
         <v>79</v>
       </c>
       <c r="F494">
-        <v>-3.32791777064266E-05</v>
+        <v>-3.327917770642747E-05</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10988,7 +10988,7 @@
         <v>80</v>
       </c>
       <c r="F495">
-        <v>2.267481697745995E-05</v>
+        <v>2.267481697745821E-05</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11008,7 +11008,7 @@
         <v>81</v>
       </c>
       <c r="F496">
-        <v>8.521844706774629E-05</v>
+        <v>8.521844706774542E-05</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -11028,7 +11028,7 @@
         <v>82</v>
       </c>
       <c r="F497">
-        <v>4.096015578298508E-06</v>
+        <v>4.09601557829764E-06</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -11048,7 +11048,7 @@
         <v>83</v>
       </c>
       <c r="F498">
-        <v>-6.391962835743115E-06</v>
+        <v>-6.391962835743982E-06</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -11068,7 +11068,7 @@
         <v>84</v>
       </c>
       <c r="F499">
-        <v>-1.578377094715172E-06</v>
+        <v>-1.578377094716039E-06</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -11088,7 +11088,7 @@
         <v>85</v>
       </c>
       <c r="F500">
-        <v>3.602812451074678E-05</v>
+        <v>3.602812451074591E-05</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11108,7 +11108,7 @@
         <v>86</v>
       </c>
       <c r="F501">
-        <v>1.587237170115347E-05</v>
+        <v>1.58723717011526E-05</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -11128,7 +11128,7 @@
         <v>87</v>
       </c>
       <c r="F502">
-        <v>1.804403815584485E-06</v>
+        <v>1.804403815583618E-06</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11148,7 +11148,7 @@
         <v>88</v>
       </c>
       <c r="F503">
-        <v>-1.307650130141259E-05</v>
+        <v>-1.307650130141346E-05</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -11168,7 +11168,7 @@
         <v>89</v>
       </c>
       <c r="F504">
-        <v>-8.386872611755407E-06</v>
+        <v>-8.386872611756274E-06</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11188,7 +11188,7 @@
         <v>90</v>
       </c>
       <c r="F505">
-        <v>7.548500045318537E-05</v>
+        <v>7.54850004531845E-05</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11208,7 +11208,7 @@
         <v>91</v>
       </c>
       <c r="F506">
-        <v>3.06883740531427E-05</v>
+        <v>3.068837405314183E-05</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -11268,7 +11268,7 @@
         <v>94</v>
       </c>
       <c r="F509">
-        <v>-4.500576246064918E-06</v>
+        <v>-4.500576246065785E-06</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -11288,7 +11288,7 @@
         <v>95</v>
       </c>
       <c r="F510">
-        <v>-0.0001389015264028496</v>
+        <v>-0.0001389015264028504</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -11308,7 +11308,7 @@
         <v>96</v>
       </c>
       <c r="F511">
-        <v>3.44086456685825E-05</v>
+        <v>3.440864566858163E-05</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -11328,7 +11328,7 @@
         <v>97</v>
       </c>
       <c r="F512">
-        <v>2.605814869438561E-14</v>
+        <v>2.605728133264762E-14</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -11348,7 +11348,7 @@
         <v>98</v>
       </c>
       <c r="F513">
-        <v>-3.754309312899856E-05</v>
+        <v>-3.754309312899943E-05</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -11368,7 +11368,7 @@
         <v>99</v>
       </c>
       <c r="F514">
-        <v>2.887999657302451E-05</v>
+        <v>2.887999657302364E-05</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -11388,7 +11388,7 @@
         <v>100</v>
       </c>
       <c r="F515">
-        <v>0.0001911448309528073</v>
+        <v>0.0001911448309528064</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -11408,7 +11408,7 @@
         <v>101</v>
       </c>
       <c r="F516">
-        <v>1.418464683768193E-05</v>
+        <v>1.418464683768106E-05</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -11428,7 +11428,7 @@
         <v>102</v>
       </c>
       <c r="F517">
-        <v>4.538058642764107E-05</v>
+        <v>4.53805864276402E-05</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -11448,7 +11448,7 @@
         <v>103</v>
       </c>
       <c r="F518">
-        <v>1.064756196472554E-05</v>
+        <v>1.064756196472467E-05</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -11468,7 +11468,7 @@
         <v>104</v>
       </c>
       <c r="F519">
-        <v>0.0003314156731895673</v>
+        <v>0.0003314156731895664</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -11488,7 +11488,7 @@
         <v>5</v>
       </c>
       <c r="F520">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -13228,7 +13228,7 @@
         <v>105</v>
       </c>
       <c r="F607">
-        <v>6.072036044206658E-05</v>
+        <v>6.072036044206657E-05</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -13248,7 +13248,7 @@
         <v>106</v>
       </c>
       <c r="F608">
-        <v>2.539371439487092E-05</v>
+        <v>2.539371439487091E-05</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -13288,7 +13288,7 @@
         <v>108</v>
       </c>
       <c r="F610">
-        <v>2.49232295036701E-05</v>
+        <v>2.492322950367009E-05</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -13308,7 +13308,7 @@
         <v>109</v>
       </c>
       <c r="F611">
-        <v>1.318535392081939E-05</v>
+        <v>1.318535392081938E-05</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -13408,7 +13408,7 @@
         <v>114</v>
       </c>
       <c r="F616">
-        <v>-3.898896921162598E-05</v>
+        <v>-3.898896921162597E-05</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -13428,7 +13428,7 @@
         <v>115</v>
       </c>
       <c r="F617">
-        <v>-8.871322180740591E-06</v>
+        <v>-8.871322180740589E-06</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -13448,7 +13448,7 @@
         <v>116</v>
       </c>
       <c r="F618">
-        <v>3.63522318544136E-05</v>
+        <v>3.635223185441358E-05</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -13468,7 +13468,7 @@
         <v>117</v>
       </c>
       <c r="F619">
-        <v>3.875272615459536E-05</v>
+        <v>3.875272615459535E-05</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -13488,7 +13488,7 @@
         <v>118</v>
       </c>
       <c r="F620">
-        <v>-1.826160653145405E-05</v>
+        <v>-1.826160653145404E-05</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -13528,7 +13528,7 @@
         <v>120</v>
       </c>
       <c r="F622">
-        <v>-5.600796510584033E-05</v>
+        <v>-5.600796510584032E-05</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -13548,7 +13548,7 @@
         <v>121</v>
       </c>
       <c r="F623">
-        <v>1.288776282535434E-05</v>
+        <v>1.288776282535433E-05</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -13588,7 +13588,7 @@
         <v>123</v>
       </c>
       <c r="F625">
-        <v>6.081450306868367E-05</v>
+        <v>6.081450306868365E-05</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -13608,7 +13608,7 @@
         <v>124</v>
       </c>
       <c r="F626">
-        <v>5.769075510370409E-05</v>
+        <v>5.769075510370408E-05</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -13648,7 +13648,7 @@
         <v>126</v>
       </c>
       <c r="F628">
-        <v>9.08033860695349E-06</v>
+        <v>9.080338606953489E-06</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -13668,7 +13668,7 @@
         <v>127</v>
       </c>
       <c r="F629">
-        <v>8.228834188802083E-06</v>
+        <v>8.228834188802082E-06</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -13688,7 +13688,7 @@
         <v>128</v>
       </c>
       <c r="F630">
-        <v>2.640574184489605E-05</v>
+        <v>2.640574184489604E-05</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -13728,7 +13728,7 @@
         <v>130</v>
       </c>
       <c r="F632">
-        <v>3.891191944557196E-05</v>
+        <v>3.891191944557195E-05</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -13748,7 +13748,7 @@
         <v>131</v>
       </c>
       <c r="F633">
-        <v>-2.716771703982949E-05</v>
+        <v>-2.716771703982948E-05</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -13768,7 +13768,7 @@
         <v>132</v>
       </c>
       <c r="F634">
-        <v>-3.378584266665183E-05</v>
+        <v>-3.378584266665182E-05</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -13788,7 +13788,7 @@
         <v>133</v>
       </c>
       <c r="F635">
-        <v>-4.885478132027428E-05</v>
+        <v>-4.885478132027426E-05</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -13808,7 +13808,7 @@
         <v>134</v>
       </c>
       <c r="F636">
-        <v>-2.368357999858357E-05</v>
+        <v>-2.368357999858356E-05</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -13828,7 +13828,7 @@
         <v>135</v>
       </c>
       <c r="F637">
-        <v>-1.105468166008891E-05</v>
+        <v>-1.10546816600889E-05</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -13848,7 +13848,7 @@
         <v>136</v>
       </c>
       <c r="F638">
-        <v>2.383175334079843E-05</v>
+        <v>2.383175334079842E-05</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -13868,7 +13868,7 @@
         <v>137</v>
       </c>
       <c r="F639">
-        <v>1.060485145490598E-05</v>
+        <v>1.060485145490597E-05</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -13888,7 +13888,7 @@
         <v>138</v>
       </c>
       <c r="F640">
-        <v>1.137120614198008E-05</v>
+        <v>1.137120614198007E-05</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -13908,7 +13908,7 @@
         <v>139</v>
       </c>
       <c r="F641">
-        <v>-7.014764076302911E-05</v>
+        <v>-7.014764076302909E-05</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -13948,7 +13948,7 @@
         <v>141</v>
       </c>
       <c r="F643">
-        <v>-3.556842025611523E-05</v>
+        <v>-3.556842025611522E-05</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -13968,7 +13968,7 @@
         <v>142</v>
       </c>
       <c r="F644">
-        <v>-2.526683984070191E-05</v>
+        <v>-2.52668398407019E-05</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -14008,7 +14008,7 @@
         <v>144</v>
       </c>
       <c r="F646">
-        <v>-5.68952212898153E-05</v>
+        <v>-5.689522128981529E-05</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14028,7 +14028,7 @@
         <v>145</v>
       </c>
       <c r="F647">
-        <v>-9.011510879277583E-05</v>
+        <v>-9.011510879277581E-05</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -14048,7 +14048,7 @@
         <v>146</v>
       </c>
       <c r="F648">
-        <v>1.622094144034032E-05</v>
+        <v>1.622094144034031E-05</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14088,7 +14088,7 @@
         <v>148</v>
       </c>
       <c r="F650">
-        <v>5.821761431478483E-05</v>
+        <v>5.821761431478482E-05</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -14128,7 +14128,7 @@
         <v>150</v>
       </c>
       <c r="F652">
-        <v>-4.734132984222322E-05</v>
+        <v>-4.73413298422232E-05</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="F654">
-        <v>3.184531516419799E-05</v>
+        <v>3.184531516419798E-05</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -14188,7 +14188,7 @@
         <v>153</v>
       </c>
       <c r="F655">
-        <v>7.129755667471342E-05</v>
+        <v>7.12975566747134E-05</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -14208,7 +14208,7 @@
         <v>154</v>
       </c>
       <c r="F656">
-        <v>-4.369901704690859E-05</v>
+        <v>-4.369901704690858E-05</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -14228,7 +14228,7 @@
         <v>155</v>
       </c>
       <c r="F657">
-        <v>9.322527068591937E-06</v>
+        <v>9.322527068591933E-06</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -14268,7 +14268,7 @@
         <v>157</v>
       </c>
       <c r="F659">
-        <v>6.717892878510187E-05</v>
+        <v>6.717892878510186E-05</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -14288,7 +14288,7 @@
         <v>158</v>
       </c>
       <c r="F660">
-        <v>1.194065714407715E-05</v>
+        <v>1.194065714407714E-05</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -14328,7 +14328,7 @@
         <v>160</v>
       </c>
       <c r="F662">
-        <v>-4.353717150548194E-05</v>
+        <v>-4.353717150548193E-05</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -14348,7 +14348,7 @@
         <v>161</v>
       </c>
       <c r="F663">
-        <v>-2.497131505019526E-05</v>
+        <v>-2.497131505019525E-05</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -14368,7 +14368,7 @@
         <v>162</v>
       </c>
       <c r="F664">
-        <v>6.630198855993395E-05</v>
+        <v>6.630198855993392E-05</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -14388,7 +14388,7 @@
         <v>163</v>
       </c>
       <c r="F665">
-        <v>7.819432044875551E-05</v>
+        <v>7.819432044875549E-05</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -14408,7 +14408,7 @@
         <v>164</v>
       </c>
       <c r="F666">
-        <v>1.90237962597095E-05</v>
+        <v>1.902379625970949E-05</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -14428,7 +14428,7 @@
         <v>165</v>
       </c>
       <c r="F667">
-        <v>1.62769144722685E-05</v>
+        <v>1.627691447226849E-05</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -14448,7 +14448,7 @@
         <v>166</v>
       </c>
       <c r="F668">
-        <v>1.224265294696694E-06</v>
+        <v>1.224265294696693E-06</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -14468,7 +14468,7 @@
         <v>167</v>
       </c>
       <c r="F669">
-        <v>5.480899271776952E-05</v>
+        <v>5.480899271776951E-05</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -14488,7 +14488,7 @@
         <v>168</v>
       </c>
       <c r="F670">
-        <v>3.849386138674631E-05</v>
+        <v>3.84938613867463E-05</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -14508,7 +14508,7 @@
         <v>169</v>
       </c>
       <c r="F671">
-        <v>3.732487079230202E-05</v>
+        <v>3.732487079230201E-05</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -14568,7 +14568,7 @@
         <v>172</v>
       </c>
       <c r="F674">
-        <v>9.366398600925363E-05</v>
+        <v>9.36639860092536E-05</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14588,7 +14588,7 @@
         <v>173</v>
       </c>
       <c r="F675">
-        <v>-0.0002571217518343223</v>
+        <v>-0.0002571217518343221</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14608,7 +14608,7 @@
         <v>174</v>
       </c>
       <c r="F676">
-        <v>-5.872259540384279E-05</v>
+        <v>-5.872259540384277E-05</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14628,7 +14628,7 @@
         <v>175</v>
       </c>
       <c r="F677">
-        <v>7.448837281603231E-06</v>
+        <v>7.44883728160323E-06</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14668,7 +14668,7 @@
         <v>177</v>
       </c>
       <c r="F679">
-        <v>-5.698490566049047E-05</v>
+        <v>-5.698490566049045E-05</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14708,7 +14708,7 @@
         <v>179</v>
       </c>
       <c r="F681">
-        <v>4.08587378042775E-05</v>
+        <v>4.085873780427749E-05</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14728,7 +14728,7 @@
         <v>180</v>
       </c>
       <c r="F682">
-        <v>6.868886376582977E-05</v>
+        <v>6.868886376582975E-05</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14748,7 +14748,7 @@
         <v>181</v>
       </c>
       <c r="F683">
-        <v>3.625035667704255E-07</v>
+        <v>3.625035667704254E-07</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -14768,7 +14768,7 @@
         <v>182</v>
       </c>
       <c r="F684">
-        <v>7.043684866444485E-05</v>
+        <v>7.043684866444483E-05</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -14788,7 +14788,7 @@
         <v>183</v>
       </c>
       <c r="F685">
-        <v>-3.791125367697542E-05</v>
+        <v>-3.79112536769754E-05</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -14828,7 +14828,7 @@
         <v>185</v>
       </c>
       <c r="F687">
-        <v>-6.853149256078848E-06</v>
+        <v>-6.853149256078847E-06</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -14848,7 +14848,7 @@
         <v>186</v>
       </c>
       <c r="F688">
-        <v>5.016196296887747E-05</v>
+        <v>5.016196296887746E-05</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -14868,7 +14868,7 @@
         <v>187</v>
       </c>
       <c r="F689">
-        <v>-2.234753750148408E-05</v>
+        <v>-2.234753750148407E-05</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -14928,7 +14928,7 @@
         <v>190</v>
       </c>
       <c r="F692">
-        <v>-1.058541522146379E-05</v>
+        <v>-1.058541522146378E-05</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -14948,7 +14948,7 @@
         <v>105</v>
       </c>
       <c r="F693">
-        <v>3.177471765080818E-05</v>
+        <v>3.177471765080731E-05</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -14968,7 +14968,7 @@
         <v>106</v>
       </c>
       <c r="F694">
-        <v>2.432877560130768E-05</v>
+        <v>2.432877560130681E-05</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -14988,7 +14988,7 @@
         <v>107</v>
       </c>
       <c r="F695">
-        <v>0.0004494678987834403</v>
+        <v>0.0004494678987834394</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -15008,7 +15008,7 @@
         <v>108</v>
       </c>
       <c r="F696">
-        <v>5.459208973531424E-05</v>
+        <v>5.459208973531337E-05</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -15048,7 +15048,7 @@
         <v>110</v>
       </c>
       <c r="F698">
-        <v>-2.353018059513294E-05</v>
+        <v>-2.35301805951338E-05</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -15068,7 +15068,7 @@
         <v>111</v>
       </c>
       <c r="F699">
-        <v>7.528402839096417E-06</v>
+        <v>7.52840283909555E-06</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15088,7 +15088,7 @@
         <v>112</v>
       </c>
       <c r="F700">
-        <v>1.454636044752365E-05</v>
+        <v>1.454636044752279E-05</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -15108,7 +15108,7 @@
         <v>113</v>
       </c>
       <c r="F701">
-        <v>1.842449803834967E-14</v>
+        <v>1.842363067661168E-14</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -15128,7 +15128,7 @@
         <v>114</v>
       </c>
       <c r="F702">
-        <v>-3.319713867535375E-05</v>
+        <v>-3.319713867535462E-05</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -15148,7 +15148,7 @@
         <v>115</v>
       </c>
       <c r="F703">
-        <v>-1.162877912361596E-06</v>
+        <v>-1.162877912362463E-06</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -15168,7 +15168,7 @@
         <v>116</v>
       </c>
       <c r="F704">
-        <v>4.193713566708794E-05</v>
+        <v>4.193713566708708E-05</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -15188,7 +15188,7 @@
         <v>117</v>
       </c>
       <c r="F705">
-        <v>-2.654499967571708E-05</v>
+        <v>-2.654499967571795E-05</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -15208,7 +15208,7 @@
         <v>118</v>
       </c>
       <c r="F706">
-        <v>-6.350760979719665E-05</v>
+        <v>-6.350760979719752E-05</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -15228,7 +15228,7 @@
         <v>119</v>
       </c>
       <c r="F707">
-        <v>-3.262162594439228E-05</v>
+        <v>-3.262162594439314E-05</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -15248,7 +15248,7 @@
         <v>120</v>
       </c>
       <c r="F708">
-        <v>-1.760001394468915E-05</v>
+        <v>-1.760001394469001E-05</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -15268,7 +15268,7 @@
         <v>121</v>
       </c>
       <c r="F709">
-        <v>2.041972133280407E-05</v>
+        <v>2.04197213328032E-05</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -15288,7 +15288,7 @@
         <v>122</v>
       </c>
       <c r="F710">
-        <v>-1.725754144644509E-05</v>
+        <v>-1.725754144644596E-05</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -15308,7 +15308,7 @@
         <v>123</v>
       </c>
       <c r="F711">
-        <v>6.025405637212098E-05</v>
+        <v>6.025405637212012E-05</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -15328,7 +15328,7 @@
         <v>124</v>
       </c>
       <c r="F712">
-        <v>6.919450879647833E-05</v>
+        <v>6.919450879647746E-05</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -15348,7 +15348,7 @@
         <v>125</v>
       </c>
       <c r="F713">
-        <v>2.896104799465608E-06</v>
+        <v>2.896104799464741E-06</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -15368,7 +15368,7 @@
         <v>126</v>
       </c>
       <c r="F714">
-        <v>-3.182151097189459E-06</v>
+        <v>-3.182151097190326E-06</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15388,7 +15388,7 @@
         <v>127</v>
       </c>
       <c r="F715">
-        <v>1.823537126073192E-05</v>
+        <v>1.823537126073105E-05</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -15408,7 +15408,7 @@
         <v>128</v>
       </c>
       <c r="F716">
-        <v>3.208653181202949E-05</v>
+        <v>3.208653181202862E-05</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -15428,7 +15428,7 @@
         <v>129</v>
       </c>
       <c r="F717">
-        <v>0.0002108852477918249</v>
+        <v>0.000210885247791824</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -15448,7 +15448,7 @@
         <v>130</v>
       </c>
       <c r="F718">
-        <v>0.0002629978842388614</v>
+        <v>0.0002629978842388606</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -15468,7 +15468,7 @@
         <v>131</v>
       </c>
       <c r="F719">
-        <v>-2.108096146497505E-05</v>
+        <v>-2.108096146497592E-05</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -15488,7 +15488,7 @@
         <v>132</v>
       </c>
       <c r="F720">
-        <v>2.54738348321056E-05</v>
+        <v>2.547383483210474E-05</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -15508,7 +15508,7 @@
         <v>133</v>
       </c>
       <c r="F721">
-        <v>-9.821090022207879E-05</v>
+        <v>-9.821090022207966E-05</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -15528,7 +15528,7 @@
         <v>134</v>
       </c>
       <c r="F722">
-        <v>1.275811200077831E-06</v>
+        <v>1.275811200076964E-06</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -15568,7 +15568,7 @@
         <v>136</v>
       </c>
       <c r="F724">
-        <v>3.57399888956003E-05</v>
+        <v>3.573998889559943E-05</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -15588,7 +15588,7 @@
         <v>137</v>
       </c>
       <c r="F725">
-        <v>1.603232336892108E-05</v>
+        <v>1.603232336891977E-05</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -15608,7 +15608,7 @@
         <v>138</v>
       </c>
       <c r="F726">
-        <v>5.993896916906038E-05</v>
+        <v>5.993896916905951E-05</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -15628,7 +15628,7 @@
         <v>139</v>
       </c>
       <c r="F727">
-        <v>-7.599671676523576E-05</v>
+        <v>-7.599671676523662E-05</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -15648,7 +15648,7 @@
         <v>140</v>
       </c>
       <c r="F728">
-        <v>-2.663388505404511E-05</v>
+        <v>-2.663388505404598E-05</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -15668,7 +15668,7 @@
         <v>141</v>
       </c>
       <c r="F729">
-        <v>4.575257732065269E-05</v>
+        <v>4.575257732065182E-05</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -15688,7 +15688,7 @@
         <v>142</v>
       </c>
       <c r="F730">
-        <v>-3.036787397861854E-05</v>
+        <v>-3.03678739786194E-05</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15708,7 +15708,7 @@
         <v>143</v>
       </c>
       <c r="F731">
-        <v>-0.000313976598137007</v>
+        <v>-0.0003139765981370079</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15728,7 +15728,7 @@
         <v>144</v>
       </c>
       <c r="F732">
-        <v>-2.183676995051514E-05</v>
+        <v>-2.183676995051557E-05</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -15748,7 +15748,7 @@
         <v>145</v>
       </c>
       <c r="F733">
-        <v>-7.163853789699144E-05</v>
+        <v>-7.163853789699231E-05</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15768,7 +15768,7 @@
         <v>146</v>
       </c>
       <c r="F734">
-        <v>-1.435969937476928E-05</v>
+        <v>-1.435969937477015E-05</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -15788,7 +15788,7 @@
         <v>147</v>
       </c>
       <c r="F735">
-        <v>4.944971313648478E-05</v>
+        <v>4.944971313648391E-05</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -15808,7 +15808,7 @@
         <v>148</v>
       </c>
       <c r="F736">
-        <v>0.0001297438602017227</v>
+        <v>0.0001297438602017214</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15828,7 +15828,7 @@
         <v>149</v>
       </c>
       <c r="F737">
-        <v>-1.576121837937924E-05</v>
+        <v>-1.576121837938097E-05</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15848,7 +15848,7 @@
         <v>150</v>
       </c>
       <c r="F738">
-        <v>-4.419476832000137E-05</v>
+        <v>-4.419476832000224E-05</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15868,7 +15868,7 @@
         <v>151</v>
       </c>
       <c r="F739">
-        <v>-4.519463828379488E-06</v>
+        <v>-4.519463828380355E-06</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15888,7 +15888,7 @@
         <v>152</v>
       </c>
       <c r="F740">
-        <v>5.665611735838297E-05</v>
+        <v>5.665611735838211E-05</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15908,7 +15908,7 @@
         <v>153</v>
       </c>
       <c r="F741">
-        <v>0.0002343288260004748</v>
+        <v>0.000234328826000474</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15928,7 +15928,7 @@
         <v>154</v>
       </c>
       <c r="F742">
-        <v>-4.180836299140251E-05</v>
+        <v>-4.180836299140338E-05</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15948,7 +15948,7 @@
         <v>155</v>
       </c>
       <c r="F743">
-        <v>2.578663257576073E-06</v>
+        <v>2.578663257575206E-06</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15968,7 +15968,7 @@
         <v>156</v>
       </c>
       <c r="F744">
-        <v>-1.100865225693104E-05</v>
+        <v>-1.100865225693191E-05</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15988,7 +15988,7 @@
         <v>157</v>
       </c>
       <c r="F745">
-        <v>4.774184634117901E-05</v>
+        <v>4.774184634117815E-05</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -16008,7 +16008,7 @@
         <v>158</v>
       </c>
       <c r="F746">
-        <v>1.088857312434846E-05</v>
+        <v>1.088857312434759E-05</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -16028,7 +16028,7 @@
         <v>159</v>
       </c>
       <c r="F747">
-        <v>5.337198258189386E-05</v>
+        <v>5.337198258189299E-05</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -16048,7 +16048,7 @@
         <v>160</v>
       </c>
       <c r="F748">
-        <v>1.607171010062575E-05</v>
+        <v>1.607171010062488E-05</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -16068,7 +16068,7 @@
         <v>161</v>
       </c>
       <c r="F749">
-        <v>-3.680515540290408E-06</v>
+        <v>-3.680515540291276E-06</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -16088,7 +16088,7 @@
         <v>162</v>
       </c>
       <c r="F750">
-        <v>0.0001351497453399271</v>
+        <v>0.0001351497453399263</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -16108,7 +16108,7 @@
         <v>163</v>
       </c>
       <c r="F751">
-        <v>0.0002181563211952056</v>
+        <v>0.0002181563211952047</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -16128,7 +16128,7 @@
         <v>164</v>
       </c>
       <c r="F752">
-        <v>7.359422332492123E-05</v>
+        <v>7.359422332492037E-05</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -16148,7 +16148,7 @@
         <v>165</v>
       </c>
       <c r="F753">
-        <v>7.525189837114758E-06</v>
+        <v>7.52518983711389E-06</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -16168,7 +16168,7 @@
         <v>166</v>
       </c>
       <c r="F754">
-        <v>-5.929973057743759E-06</v>
+        <v>-5.929973057744627E-06</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -16188,7 +16188,7 @@
         <v>167</v>
       </c>
       <c r="F755">
-        <v>4.809889369907601E-05</v>
+        <v>4.809889369907514E-05</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -16208,7 +16208,7 @@
         <v>168</v>
       </c>
       <c r="F756">
-        <v>3.646048776725658E-05</v>
+        <v>3.646048776725572E-05</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -16228,7 +16228,7 @@
         <v>169</v>
       </c>
       <c r="F757">
-        <v>1.736721271987937E-05</v>
+        <v>1.736721271987851E-05</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -16248,7 +16248,7 @@
         <v>170</v>
       </c>
       <c r="F758">
-        <v>4.909145599481766E-05</v>
+        <v>4.90914559948168E-05</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -16268,7 +16268,7 @@
         <v>171</v>
       </c>
       <c r="F759">
-        <v>1.002931336564847E-05</v>
+        <v>1.002931336564761E-05</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -16288,7 +16288,7 @@
         <v>172</v>
       </c>
       <c r="F760">
-        <v>0.0001518589778323701</v>
+        <v>0.0001518589778323693</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -16308,7 +16308,7 @@
         <v>173</v>
       </c>
       <c r="F761">
-        <v>-0.0003315908193992981</v>
+        <v>-0.0003315908193992989</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -16328,7 +16328,7 @@
         <v>174</v>
       </c>
       <c r="F762">
-        <v>-6.627270709251955E-05</v>
+        <v>-6.627270709252042E-05</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -16348,7 +16348,7 @@
         <v>175</v>
       </c>
       <c r="F763">
-        <v>2.024389476791219E-05</v>
+        <v>2.024389476791176E-05</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -16368,7 +16368,7 @@
         <v>176</v>
       </c>
       <c r="F764">
-        <v>-8.786499986691149E-06</v>
+        <v>-8.786499986692016E-06</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -16388,7 +16388,7 @@
         <v>177</v>
       </c>
       <c r="F765">
-        <v>-2.249683332787881E-05</v>
+        <v>-2.249683332787968E-05</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -16408,7 +16408,7 @@
         <v>178</v>
       </c>
       <c r="F766">
-        <v>2.670324383312111E-05</v>
+        <v>2.670324383312024E-05</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -16428,7 +16428,7 @@
         <v>179</v>
       </c>
       <c r="F767">
-        <v>7.421676604617376E-05</v>
+        <v>7.421676604617289E-05</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -16448,7 +16448,7 @@
         <v>180</v>
       </c>
       <c r="F768">
-        <v>5.117498378915059E-05</v>
+        <v>5.117498378914972E-05</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -16468,7 +16468,7 @@
         <v>181</v>
       </c>
       <c r="F769">
-        <v>3.545449139422466E-07</v>
+        <v>3.545449139413792E-07</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -16488,7 +16488,7 @@
         <v>182</v>
       </c>
       <c r="F770">
-        <v>4.302098487538996E-05</v>
+        <v>4.302098487538909E-05</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -16508,7 +16508,7 @@
         <v>183</v>
       </c>
       <c r="F771">
-        <v>-9.829834950136592E-05</v>
+        <v>-9.829834950136679E-05</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -16528,7 +16528,7 @@
         <v>184</v>
       </c>
       <c r="F772">
-        <v>-0.0004301360395466093</v>
+        <v>-0.0004301360395466101</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -16548,7 +16548,7 @@
         <v>185</v>
       </c>
       <c r="F773">
-        <v>-9.2457944691135E-06</v>
+        <v>-9.245794469114367E-06</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16568,7 +16568,7 @@
         <v>186</v>
       </c>
       <c r="F774">
-        <v>0.0001431375153065875</v>
+        <v>0.0001431375153065867</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16588,7 +16588,7 @@
         <v>187</v>
       </c>
       <c r="F775">
-        <v>7.103404110914927E-06</v>
+        <v>7.10340411091406E-06</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16608,7 +16608,7 @@
         <v>188</v>
       </c>
       <c r="F776">
-        <v>1.122262622880576E-05</v>
+        <v>1.122262622880489E-05</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16628,7 +16628,7 @@
         <v>189</v>
       </c>
       <c r="F777">
-        <v>-1.115998069828924E-06</v>
+        <v>-1.115998069829791E-06</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -16648,7 +16648,7 @@
         <v>190</v>
       </c>
       <c r="F778">
-        <v>2.169834212886832E-05</v>
+        <v>2.169834212886745E-05</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -18408,7 +18408,7 @@
         <v>105</v>
       </c>
       <c r="F866">
-        <v>8.587794969868493E-05</v>
+        <v>8.587794969868491E-05</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -18508,7 +18508,7 @@
         <v>110</v>
       </c>
       <c r="F871">
-        <v>-2.493461070329222E-05</v>
+        <v>-2.493461070329221E-05</v>
       </c>
     </row>
     <row r="872" spans="1:6">
@@ -18528,7 +18528,7 @@
         <v>111</v>
       </c>
       <c r="F872">
-        <v>-1.656120722348639E-05</v>
+        <v>-1.656120722348638E-05</v>
       </c>
     </row>
     <row r="873" spans="1:6">
@@ -18548,7 +18548,7 @@
         <v>112</v>
       </c>
       <c r="F873">
-        <v>1.525992647438968E-05</v>
+        <v>1.525992647438967E-05</v>
       </c>
     </row>
     <row r="874" spans="1:6">
@@ -18568,7 +18568,7 @@
         <v>113</v>
       </c>
       <c r="F874">
-        <v>2.285536177407577E-05</v>
+        <v>2.285536177407576E-05</v>
       </c>
     </row>
     <row r="875" spans="1:6">
@@ -18628,7 +18628,7 @@
         <v>116</v>
       </c>
       <c r="F877">
-        <v>5.14136463601337E-05</v>
+        <v>5.141364636013369E-05</v>
       </c>
     </row>
     <row r="878" spans="1:6">
@@ -18648,7 +18648,7 @@
         <v>117</v>
       </c>
       <c r="F878">
-        <v>5.480871067237007E-05</v>
+        <v>5.480871067237006E-05</v>
       </c>
     </row>
     <row r="879" spans="1:6">
@@ -18708,7 +18708,7 @@
         <v>120</v>
       </c>
       <c r="F881">
-        <v>-7.921312019671134E-05</v>
+        <v>-7.921312019671132E-05</v>
       </c>
     </row>
     <row r="882" spans="1:6">
@@ -18768,7 +18768,7 @@
         <v>123</v>
       </c>
       <c r="F884">
-        <v>8.601109738908504E-05</v>
+        <v>8.601109738908502E-05</v>
       </c>
     </row>
     <row r="885" spans="1:6">
@@ -18788,7 +18788,7 @@
         <v>124</v>
       </c>
       <c r="F885">
-        <v>8.159312179317544E-05</v>
+        <v>8.159312179317543E-05</v>
       </c>
     </row>
     <row r="886" spans="1:6">
@@ -18868,7 +18868,7 @@
         <v>128</v>
       </c>
       <c r="F889">
-        <v>3.734613815535618E-05</v>
+        <v>3.734613815535617E-05</v>
       </c>
     </row>
     <row r="890" spans="1:6">
@@ -18888,7 +18888,7 @@
         <v>129</v>
       </c>
       <c r="F890">
-        <v>0.0001486319063801319</v>
+        <v>0.0001486319063801318</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -18908,7 +18908,7 @@
         <v>130</v>
       </c>
       <c r="F891">
-        <v>5.503386074287896E-05</v>
+        <v>5.503386074287895E-05</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18948,7 +18948,7 @@
         <v>132</v>
       </c>
       <c r="F893">
-        <v>-4.778395378305925E-05</v>
+        <v>-4.778395378305924E-05</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18968,7 +18968,7 @@
         <v>133</v>
       </c>
       <c r="F894">
-        <v>-6.9096237608236E-05</v>
+        <v>-6.909623760823599E-05</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -19088,7 +19088,7 @@
         <v>139</v>
       </c>
       <c r="F900">
-        <v>-9.921112985942292E-05</v>
+        <v>-9.921112985942291E-05</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -19128,7 +19128,7 @@
         <v>141</v>
       </c>
       <c r="F902">
-        <v>-5.030508685024515E-05</v>
+        <v>-5.030508685024514E-05</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -19148,7 +19148,7 @@
         <v>142</v>
       </c>
       <c r="F903">
-        <v>-3.573536759477571E-05</v>
+        <v>-3.57353675947757E-05</v>
       </c>
     </row>
     <row r="904" spans="1:6">
@@ -19188,7 +19188,7 @@
         <v>144</v>
       </c>
       <c r="F905">
-        <v>-8.046798333293972E-05</v>
+        <v>-8.046798333293971E-05</v>
       </c>
     </row>
     <row r="906" spans="1:6">
@@ -19208,7 +19208,7 @@
         <v>145</v>
       </c>
       <c r="F906">
-        <v>-0.000127451496065825</v>
+        <v>-0.0001274514960658249</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -19248,7 +19248,7 @@
         <v>147</v>
       </c>
       <c r="F908">
-        <v>3.588459039159062E-05</v>
+        <v>3.588459039159061E-05</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -19268,7 +19268,7 @@
         <v>148</v>
       </c>
       <c r="F909">
-        <v>8.233826870103429E-05</v>
+        <v>8.233826870103428E-05</v>
       </c>
     </row>
     <row r="910" spans="1:6">
@@ -19288,7 +19288,7 @@
         <v>149</v>
       </c>
       <c r="F910">
-        <v>2.079164947435397E-05</v>
+        <v>2.079164947435396E-05</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -19348,7 +19348,7 @@
         <v>152</v>
       </c>
       <c r="F913">
-        <v>4.503942917827458E-05</v>
+        <v>4.503942917827457E-05</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -19388,7 +19388,7 @@
         <v>154</v>
       </c>
       <c r="F915">
-        <v>-6.180434306573209E-05</v>
+        <v>-6.180434306573208E-05</v>
       </c>
     </row>
     <row r="916" spans="1:6">
@@ -19428,7 +19428,7 @@
         <v>156</v>
       </c>
       <c r="F917">
-        <v>-4.206723388070075E-05</v>
+        <v>-4.206723388070074E-05</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -19448,7 +19448,7 @@
         <v>157</v>
       </c>
       <c r="F918">
-        <v>9.501242458076167E-05</v>
+        <v>9.501242458076165E-05</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -19468,7 +19468,7 @@
         <v>158</v>
       </c>
       <c r="F919">
-        <v>1.68878963517793E-05</v>
+        <v>1.688789635177929E-05</v>
       </c>
     </row>
     <row r="920" spans="1:6">
@@ -19488,7 +19488,7 @@
         <v>159</v>
       </c>
       <c r="F920">
-        <v>2.350637289867404E-05</v>
+        <v>2.350637289867403E-05</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -19508,7 +19508,7 @@
         <v>160</v>
       </c>
       <c r="F921">
-        <v>-6.157544186744532E-05</v>
+        <v>-6.157544186744531E-05</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -19528,7 +19528,7 @@
         <v>161</v>
       </c>
       <c r="F922">
-        <v>-3.531740131609957E-05</v>
+        <v>-3.531740131609956E-05</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -19548,7 +19548,7 @@
         <v>162</v>
       </c>
       <c r="F923">
-        <v>9.377215149941891E-05</v>
+        <v>9.37721514994189E-05</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19648,7 +19648,7 @@
         <v>167</v>
       </c>
       <c r="F928">
-        <v>7.751739096053369E-05</v>
+        <v>7.751739096053368E-05</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19688,7 +19688,7 @@
         <v>169</v>
       </c>
       <c r="F930">
-        <v>5.278926793376811E-05</v>
+        <v>5.27892679337681E-05</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19768,7 +19768,7 @@
         <v>173</v>
       </c>
       <c r="F934">
-        <v>-0.0003636521375977879</v>
+        <v>-0.0003636521375977878</v>
       </c>
     </row>
     <row r="935" spans="1:6">
@@ -19788,7 +19788,7 @@
         <v>174</v>
       </c>
       <c r="F935">
-        <v>-8.30524729687491E-05</v>
+        <v>-8.305247296874909E-05</v>
       </c>
     </row>
     <row r="936" spans="1:6">
@@ -19848,7 +19848,7 @@
         <v>177</v>
       </c>
       <c r="F938">
-        <v>-8.059482562797104E-05</v>
+        <v>-8.059482562797101E-05</v>
       </c>
     </row>
     <row r="939" spans="1:6">
@@ -19868,7 +19868,7 @@
         <v>178</v>
       </c>
       <c r="F939">
-        <v>3.384129849277928E-05</v>
+        <v>3.384129849277927E-05</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -19888,7 +19888,7 @@
         <v>179</v>
       </c>
       <c r="F940">
-        <v>5.778728262417537E-05</v>
+        <v>5.778728262417535E-05</v>
       </c>
     </row>
     <row r="941" spans="1:6">
@@ -19908,7 +19908,7 @@
         <v>180</v>
       </c>
       <c r="F941">
-        <v>9.71479540700333E-05</v>
+        <v>9.714795407003327E-05</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -19928,7 +19928,7 @@
         <v>181</v>
       </c>
       <c r="F942">
-        <v>5.126956237752687E-07</v>
+        <v>5.126956237752686E-07</v>
       </c>
     </row>
     <row r="943" spans="1:6">
@@ -19948,7 +19948,7 @@
         <v>182</v>
       </c>
       <c r="F943">
-        <v>9.962016204285239E-05</v>
+        <v>9.962016204285237E-05</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -19968,7 +19968,7 @@
         <v>183</v>
       </c>
       <c r="F944">
-        <v>-5.361860029456985E-05</v>
+        <v>-5.361860029456984E-05</v>
       </c>
     </row>
     <row r="945" spans="1:6">
@@ -20008,7 +20008,7 @@
         <v>185</v>
       </c>
       <c r="F946">
-        <v>-9.692538100998943E-06</v>
+        <v>-9.692538100998941E-06</v>
       </c>
     </row>
     <row r="947" spans="1:6">
@@ -20028,7 +20028,7 @@
         <v>186</v>
       </c>
       <c r="F947">
-        <v>7.094500924016487E-05</v>
+        <v>7.094500924016486E-05</v>
       </c>
     </row>
     <row r="948" spans="1:6">
@@ -20048,7 +20048,7 @@
         <v>187</v>
       </c>
       <c r="F948">
-        <v>-3.160654329898124E-05</v>
+        <v>-3.160654329898123E-05</v>
       </c>
     </row>
     <row r="949" spans="1:6">
@@ -20068,7 +20068,7 @@
         <v>188</v>
       </c>
       <c r="F949">
-        <v>2.594675684927786E-05</v>
+        <v>2.594675684927785E-05</v>
       </c>
     </row>
     <row r="950" spans="1:6">
@@ -20088,7 +20088,7 @@
         <v>189</v>
       </c>
       <c r="F950">
-        <v>-5.021438652670882E-05</v>
+        <v>-5.021438652670881E-05</v>
       </c>
     </row>
     <row r="951" spans="1:6">
@@ -20128,7 +20128,7 @@
         <v>105</v>
       </c>
       <c r="F952">
-        <v>4.493958178508357E-05</v>
+        <v>4.49395817850827E-05</v>
       </c>
     </row>
     <row r="953" spans="1:6">
@@ -20148,7 +20148,7 @@
         <v>106</v>
       </c>
       <c r="F953">
-        <v>3.44086456685825E-05</v>
+        <v>3.440864566858163E-05</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -20168,7 +20168,7 @@
         <v>107</v>
       </c>
       <c r="F954">
-        <v>0.0006356909168832364</v>
+        <v>0.0006356909168832355</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -20188,7 +20188,7 @@
         <v>108</v>
       </c>
       <c r="F955">
-        <v>7.721062098615949E-05</v>
+        <v>7.721062098615863E-05</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -20228,7 +20228,7 @@
         <v>110</v>
       </c>
       <c r="F957">
-        <v>-3.32791777064266E-05</v>
+        <v>-3.327917770642747E-05</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -20248,7 +20248,7 @@
         <v>111</v>
       </c>
       <c r="F958">
-        <v>1.064756196472554E-05</v>
+        <v>1.064756196472467E-05</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -20268,7 +20268,7 @@
         <v>112</v>
       </c>
       <c r="F959">
-        <v>2.057319162331473E-05</v>
+        <v>2.057319162331386E-05</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -20288,7 +20288,7 @@
         <v>113</v>
       </c>
       <c r="F960">
-        <v>2.605814869438561E-14</v>
+        <v>2.605728133264762E-14</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -20308,7 +20308,7 @@
         <v>114</v>
       </c>
       <c r="F961">
-        <v>-4.695133863743053E-05</v>
+        <v>-4.69513386374314E-05</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -20328,7 +20328,7 @@
         <v>115</v>
       </c>
       <c r="F962">
-        <v>-1.644680139190058E-06</v>
+        <v>-1.644680139190925E-06</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20348,7 +20348,7 @@
         <v>116</v>
       </c>
       <c r="F963">
-        <v>5.931248103774409E-05</v>
+        <v>5.931248103774323E-05</v>
       </c>
     </row>
     <row r="964" spans="1:6">
@@ -20368,7 +20368,7 @@
         <v>117</v>
       </c>
       <c r="F964">
-        <v>-3.754309312899856E-05</v>
+        <v>-3.754309312899943E-05</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -20388,7 +20388,7 @@
         <v>118</v>
       </c>
       <c r="F965">
-        <v>-8.982000897130634E-05</v>
+        <v>-8.982000897130721E-05</v>
       </c>
     </row>
     <row r="966" spans="1:6">
@@ -20408,7 +20408,7 @@
         <v>119</v>
       </c>
       <c r="F966">
-        <v>-4.613738013980843E-05</v>
+        <v>-4.61373801398093E-05</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -20428,7 +20428,7 @@
         <v>120</v>
       </c>
       <c r="F967">
-        <v>-2.489203129286792E-05</v>
+        <v>-2.489203129286879E-05</v>
       </c>
     </row>
     <row r="968" spans="1:6">
@@ -20448,7 +20448,7 @@
         <v>121</v>
       </c>
       <c r="F968">
-        <v>2.887999657302451E-05</v>
+        <v>2.887999657302364E-05</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -20468,7 +20468,7 @@
         <v>122</v>
       </c>
       <c r="F969">
-        <v>-2.440766598667959E-05</v>
+        <v>-2.440766598668046E-05</v>
       </c>
     </row>
     <row r="970" spans="1:6">
@@ -20488,7 +20488,7 @@
         <v>123</v>
       </c>
       <c r="F970">
-        <v>8.521844706774629E-05</v>
+        <v>8.521844706774542E-05</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -20508,7 +20508,7 @@
         <v>124</v>
       </c>
       <c r="F971">
-        <v>9.786309736284794E-05</v>
+        <v>9.786309736284707E-05</v>
       </c>
     </row>
     <row r="972" spans="1:6">
@@ -20528,7 +20528,7 @@
         <v>125</v>
       </c>
       <c r="F972">
-        <v>4.096015578298508E-06</v>
+        <v>4.09601557829764E-06</v>
       </c>
     </row>
     <row r="973" spans="1:6">
@@ -20548,7 +20548,7 @@
         <v>126</v>
       </c>
       <c r="F973">
-        <v>-4.500576246064918E-06</v>
+        <v>-4.500576246065785E-06</v>
       </c>
     </row>
     <row r="974" spans="1:6">
@@ -20568,7 +20568,7 @@
         <v>127</v>
       </c>
       <c r="F974">
-        <v>2.579062911459672E-05</v>
+        <v>2.579062911459585E-05</v>
       </c>
     </row>
     <row r="975" spans="1:6">
@@ -20588,7 +20588,7 @@
         <v>128</v>
       </c>
       <c r="F975">
-        <v>4.538058642764107E-05</v>
+        <v>4.53805864276402E-05</v>
       </c>
     </row>
     <row r="976" spans="1:6">
@@ -20608,7 +20608,7 @@
         <v>129</v>
       </c>
       <c r="F976">
-        <v>0.0002982589788698671</v>
+        <v>0.0002982589788698663</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -20628,7 +20628,7 @@
         <v>130</v>
       </c>
       <c r="F977">
-        <v>0.0003719628623593983</v>
+        <v>0.0003719628623593974</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -20648,7 +20648,7 @@
         <v>131</v>
       </c>
       <c r="F978">
-        <v>-2.981520094921634E-05</v>
+        <v>-2.981520094921721E-05</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -20668,7 +20668,7 @@
         <v>132</v>
       </c>
       <c r="F979">
-        <v>3.602812451074678E-05</v>
+        <v>3.602812451074591E-05</v>
       </c>
     </row>
     <row r="980" spans="1:6">
@@ -20688,7 +20688,7 @@
         <v>133</v>
       </c>
       <c r="F980">
-        <v>-0.0001389015264028496</v>
+        <v>-0.0001389015264028504</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -20708,7 +20708,7 @@
         <v>134</v>
       </c>
       <c r="F981">
-        <v>1.804403815584485E-06</v>
+        <v>1.804403815583618E-06</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -20748,7 +20748,7 @@
         <v>136</v>
       </c>
       <c r="F983">
-        <v>5.054773960929196E-05</v>
+        <v>5.054773960929109E-05</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -20768,7 +20768,7 @@
         <v>137</v>
       </c>
       <c r="F984">
-        <v>2.267481697745995E-05</v>
+        <v>2.267481697745821E-05</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20788,7 +20788,7 @@
         <v>138</v>
       </c>
       <c r="F985">
-        <v>8.477281330045421E-05</v>
+        <v>8.477281330045335E-05</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20808,7 +20808,7 @@
         <v>139</v>
       </c>
       <c r="F986">
-        <v>-0.0001074835882414931</v>
+        <v>-0.0001074835882414939</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20828,7 +20828,7 @@
         <v>140</v>
       </c>
       <c r="F987">
-        <v>-3.766880539410062E-05</v>
+        <v>-3.766880539410149E-05</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20848,7 +20848,7 @@
         <v>141</v>
       </c>
       <c r="F988">
-        <v>6.470873204840379E-05</v>
+        <v>6.470873204840293E-05</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -20868,7 +20868,7 @@
         <v>142</v>
       </c>
       <c r="F989">
-        <v>-4.294985627563939E-05</v>
+        <v>-4.294985627564026E-05</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20888,7 +20888,7 @@
         <v>143</v>
       </c>
       <c r="F990">
-        <v>-0.0004440630178257953</v>
+        <v>-0.0004440630178257961</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20928,7 +20928,7 @@
         <v>145</v>
       </c>
       <c r="F992">
-        <v>-0.0001013197337633555</v>
+        <v>-0.0001013197337633564</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20948,7 +20948,7 @@
         <v>146</v>
       </c>
       <c r="F993">
-        <v>-2.030919335156527E-05</v>
+        <v>-2.030919335156613E-05</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -20968,7 +20968,7 @@
         <v>147</v>
       </c>
       <c r="F994">
-        <v>6.993766088396556E-05</v>
+        <v>6.993766088396469E-05</v>
       </c>
     </row>
     <row r="995" spans="1:6">
@@ -20988,7 +20988,7 @@
         <v>148</v>
       </c>
       <c r="F995">
-        <v>0.000183499185759075</v>
+        <v>0.0001834991857590732</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -21008,7 +21008,7 @@
         <v>149</v>
       </c>
       <c r="F996">
-        <v>-2.229138808333871E-05</v>
+        <v>-2.229138808334044E-05</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -21028,7 +21028,7 @@
         <v>150</v>
       </c>
       <c r="F997">
-        <v>-6.250549343084482E-05</v>
+        <v>-6.250549343084569E-05</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -21048,7 +21048,7 @@
         <v>151</v>
       </c>
       <c r="F998">
-        <v>-6.391962835743115E-06</v>
+        <v>-6.391962835743982E-06</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -21068,7 +21068,7 @@
         <v>152</v>
       </c>
       <c r="F999">
-        <v>8.012981413817871E-05</v>
+        <v>8.012981413817784E-05</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -21088,7 +21088,7 @@
         <v>153</v>
       </c>
       <c r="F1000">
-        <v>0.0003314156731895673</v>
+        <v>0.0003314156731895664</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -21108,7 +21108,7 @@
         <v>154</v>
       </c>
       <c r="F1001">
-        <v>-5.913035541654354E-05</v>
+        <v>-5.913035541654441E-05</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -21128,7 +21128,7 @@
         <v>155</v>
       </c>
       <c r="F1002">
-        <v>3.647052025246809E-06</v>
+        <v>3.647052025245942E-06</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -21148,7 +21148,7 @@
         <v>156</v>
       </c>
       <c r="F1003">
-        <v>-1.556974428162418E-05</v>
+        <v>-1.556974428162505E-05</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -21168,7 +21168,7 @@
         <v>157</v>
       </c>
       <c r="F1004">
-        <v>6.75221927004515E-05</v>
+        <v>6.752219270045063E-05</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
@@ -21188,7 +21188,7 @@
         <v>158</v>
       </c>
       <c r="F1005">
-        <v>1.539991410221334E-05</v>
+        <v>1.539991410221247E-05</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -21208,7 +21208,7 @@
         <v>159</v>
       </c>
       <c r="F1006">
-        <v>7.548500045318537E-05</v>
+        <v>7.54850004531845E-05</v>
       </c>
     </row>
     <row r="1007" spans="1:6">
@@ -21228,7 +21228,7 @@
         <v>160</v>
       </c>
       <c r="F1007">
-        <v>2.273052237412605E-05</v>
+        <v>2.273052237412518E-05</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -21248,7 +21248,7 @@
         <v>161</v>
       </c>
       <c r="F1008">
-        <v>-5.205422466749397E-06</v>
+        <v>-5.205422466750265E-06</v>
       </c>
     </row>
     <row r="1009" spans="1:6">
@@ -21268,7 +21268,7 @@
         <v>162</v>
       </c>
       <c r="F1009">
-        <v>0.0001911448309528073</v>
+        <v>0.0001911448309528064</v>
       </c>
     </row>
     <row r="1010" spans="1:6">
@@ -21288,7 +21288,7 @@
         <v>163</v>
       </c>
       <c r="F1010">
-        <v>0.0003085425949657678</v>
+        <v>0.0003085425949657669</v>
       </c>
     </row>
     <row r="1011" spans="1:6">
@@ -21308,7 +21308,7 @@
         <v>164</v>
       </c>
       <c r="F1011">
-        <v>0.0001040856965077042</v>
+        <v>0.0001040856965077034</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -21328,7 +21328,7 @@
         <v>165</v>
       </c>
       <c r="F1012">
-        <v>1.064301775549181E-05</v>
+        <v>1.064301775549094E-05</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
@@ -21348,7 +21348,7 @@
         <v>166</v>
       </c>
       <c r="F1013">
-        <v>-8.386872611755407E-06</v>
+        <v>-8.386872611756274E-06</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -21368,7 +21368,7 @@
         <v>167</v>
       </c>
       <c r="F1014">
-        <v>6.802717150522671E-05</v>
+        <v>6.802717150522584E-05</v>
       </c>
     </row>
     <row r="1015" spans="1:6">
@@ -21388,7 +21388,7 @@
         <v>168</v>
       </c>
       <c r="F1015">
-        <v>5.156675473712638E-05</v>
+        <v>5.156675473712551E-05</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -21408,7 +21408,7 @@
         <v>169</v>
       </c>
       <c r="F1016">
-        <v>2.456277613482188E-05</v>
+        <v>2.456277613482102E-05</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -21428,7 +21428,7 @@
         <v>170</v>
       </c>
       <c r="F1017">
-        <v>6.943097105921361E-05</v>
+        <v>6.943097105921274E-05</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -21448,7 +21448,7 @@
         <v>171</v>
       </c>
       <c r="F1018">
-        <v>1.418464683768193E-05</v>
+        <v>1.418464683768106E-05</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -21468,7 +21468,7 @@
         <v>172</v>
       </c>
       <c r="F1019">
-        <v>0.0002147770132561178</v>
+        <v>0.0002147770132561169</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -21488,7 +21488,7 @@
         <v>173</v>
       </c>
       <c r="F1020">
-        <v>-0.0004689751427956025</v>
+        <v>-0.0004689751427956034</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -21508,7 +21508,7 @@
         <v>174</v>
       </c>
       <c r="F1021">
-        <v>-9.373073816841462E-05</v>
+        <v>-9.373073816841548E-05</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -21548,7 +21548,7 @@
         <v>176</v>
       </c>
       <c r="F1023">
-        <v>-1.24269124621634E-05</v>
+        <v>-1.242691246216426E-05</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21568,7 +21568,7 @@
         <v>177</v>
       </c>
       <c r="F1024">
-        <v>-3.181769519887152E-05</v>
+        <v>-3.181769519887238E-05</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21588,7 +21588,7 @@
         <v>178</v>
       </c>
       <c r="F1025">
-        <v>3.776690082201405E-05</v>
+        <v>3.776690082201318E-05</v>
       </c>
     </row>
     <row r="1026" spans="1:6">
@@ -21608,7 +21608,7 @@
         <v>179</v>
       </c>
       <c r="F1026">
-        <v>0.0001049661704066035</v>
+        <v>0.0001049661704066026</v>
       </c>
     </row>
     <row r="1027" spans="1:6">
@@ -21628,7 +21628,7 @@
         <v>180</v>
       </c>
       <c r="F1027">
-        <v>7.237774367082044E-05</v>
+        <v>7.237774367081957E-05</v>
       </c>
     </row>
     <row r="1028" spans="1:6">
@@ -21648,7 +21648,7 @@
         <v>181</v>
       </c>
       <c r="F1028">
-        <v>5.01439551145455E-07</v>
+        <v>5.014395511445877E-07</v>
       </c>
     </row>
     <row r="1029" spans="1:6">
@@ -21668,7 +21668,7 @@
         <v>182</v>
       </c>
       <c r="F1029">
-        <v>6.084538939194178E-05</v>
+        <v>6.084538939194091E-05</v>
       </c>
     </row>
     <row r="1030" spans="1:6">
@@ -21688,7 +21688,7 @@
         <v>183</v>
       </c>
       <c r="F1030">
-        <v>-0.0001390252075660235</v>
+        <v>-0.0001390252075660244</v>
       </c>
     </row>
     <row r="1031" spans="1:6">
@@ -21708,7 +21708,7 @@
         <v>184</v>
       </c>
       <c r="F1031">
-        <v>-0.0006083495041670417</v>
+        <v>-0.0006083495041670425</v>
       </c>
     </row>
     <row r="1032" spans="1:6">
@@ -21728,7 +21728,7 @@
         <v>185</v>
       </c>
       <c r="F1032">
-        <v>-1.307650130141259E-05</v>
+        <v>-1.307650130141346E-05</v>
       </c>
     </row>
     <row r="1033" spans="1:6">
@@ -21748,7 +21748,7 @@
         <v>186</v>
       </c>
       <c r="F1033">
-        <v>0.0002024420845001739</v>
+        <v>0.0002024420845001731</v>
       </c>
     </row>
     <row r="1034" spans="1:6">
@@ -21768,7 +21768,7 @@
         <v>187</v>
       </c>
       <c r="F1034">
-        <v>1.004647825680448E-05</v>
+        <v>1.004647825680362E-05</v>
       </c>
     </row>
     <row r="1035" spans="1:6">
@@ -21788,7 +21788,7 @@
         <v>188</v>
       </c>
       <c r="F1035">
-        <v>1.587237170115347E-05</v>
+        <v>1.58723717011526E-05</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -21808,7 +21808,7 @@
         <v>189</v>
       </c>
       <c r="F1036">
-        <v>-1.578377094715172E-06</v>
+        <v>-1.578377094716039E-06</v>
       </c>
     </row>
     <row r="1037" spans="1:6">
@@ -21828,7 +21828,7 @@
         <v>190</v>
       </c>
       <c r="F1037">
-        <v>3.06883740531427E-05</v>
+        <v>3.068837405314183E-05</v>
       </c>
     </row>
     <row r="1038" spans="1:6">
@@ -21848,7 +21848,7 @@
         <v>5</v>
       </c>
       <c r="F1038">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1039" spans="1:6">
@@ -21868,7 +21868,7 @@
         <v>191</v>
       </c>
       <c r="F1039">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1040" spans="1:6">
@@ -21888,7 +21888,7 @@
         <v>191</v>
       </c>
       <c r="F1040">
-        <v>8.830580072665371E-05</v>
+        <v>8.830580072665369E-05</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -21908,7 +21908,7 @@
         <v>191</v>
       </c>
       <c r="F1041">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1042" spans="1:6">
@@ -22008,7 +22008,7 @@
         <v>5</v>
       </c>
       <c r="F1046">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -22188,7 +22188,7 @@
         <v>192</v>
       </c>
       <c r="F1055">
-        <v>-0.0005336274480293715</v>
+        <v>-0.0005336274480293714</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22208,7 +22208,7 @@
         <v>193</v>
       </c>
       <c r="F1056">
-        <v>7.979112510685808E-05</v>
+        <v>7.979112510685807E-05</v>
       </c>
     </row>
     <row r="1057" spans="1:6">
@@ -22228,7 +22228,7 @@
         <v>194</v>
       </c>
       <c r="F1057">
-        <v>3.848961463446181E-05</v>
+        <v>3.848961463446179E-05</v>
       </c>
     </row>
     <row r="1058" spans="1:6">
@@ -22248,7 +22248,7 @@
         <v>195</v>
       </c>
       <c r="F1058">
-        <v>9.896420967255793E-05</v>
+        <v>9.89642096725579E-05</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -22268,7 +22268,7 @@
         <v>196</v>
       </c>
       <c r="F1059">
-        <v>-6.853149256078848E-06</v>
+        <v>-6.853149256078847E-06</v>
       </c>
     </row>
     <row r="1060" spans="1:6">
@@ -22328,7 +22328,7 @@
         <v>199</v>
       </c>
       <c r="F1062">
-        <v>0.0001193321489253775</v>
+        <v>0.0001193321489253774</v>
       </c>
     </row>
     <row r="1063" spans="1:6">
@@ -22368,7 +22368,7 @@
         <v>193</v>
       </c>
       <c r="F1064">
-        <v>0.0003132338189719753</v>
+        <v>0.0003132338189719744</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -22388,7 +22388,7 @@
         <v>194</v>
       </c>
       <c r="F1065">
-        <v>0.0005924502502263561</v>
+        <v>0.0005924502502263553</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -22408,7 +22408,7 @@
         <v>195</v>
       </c>
       <c r="F1066">
-        <v>0.000214600353746769</v>
+        <v>0.0002146003537467681</v>
       </c>
     </row>
     <row r="1067" spans="1:6">
@@ -22428,7 +22428,7 @@
         <v>196</v>
       </c>
       <c r="F1067">
-        <v>-9.2457944691135E-06</v>
+        <v>-9.245794469114367E-06</v>
       </c>
     </row>
     <row r="1068" spans="1:6">
@@ -22448,7 +22448,7 @@
         <v>197</v>
       </c>
       <c r="F1068">
-        <v>0.0004326910825104878</v>
+        <v>0.000432691082510487</v>
       </c>
     </row>
     <row r="1069" spans="1:6">
@@ -22468,7 +22468,7 @@
         <v>198</v>
       </c>
       <c r="F1069">
-        <v>0.0008158226419877077</v>
+        <v>0.0008158226419877068</v>
       </c>
     </row>
     <row r="1070" spans="1:6">
@@ -22488,7 +22488,7 @@
         <v>199</v>
       </c>
       <c r="F1070">
-        <v>0.0001860828103701869</v>
+        <v>0.0001860828103701861</v>
       </c>
     </row>
     <row r="1071" spans="1:6">
@@ -22688,7 +22688,7 @@
         <v>192</v>
       </c>
       <c r="F1080">
-        <v>-0.0007547193528837406</v>
+        <v>-0.0007547193528837404</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -22728,7 +22728,7 @@
         <v>194</v>
       </c>
       <c r="F1082">
-        <v>5.443658709262399E-05</v>
+        <v>5.443658709262398E-05</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -22748,7 +22748,7 @@
         <v>195</v>
       </c>
       <c r="F1083">
-        <v>0.00013996694615044</v>
+        <v>0.0001399669461504399</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -22768,7 +22768,7 @@
         <v>196</v>
       </c>
       <c r="F1084">
-        <v>-9.692538100998943E-06</v>
+        <v>-9.692538100998941E-06</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -22808,7 +22808,7 @@
         <v>198</v>
       </c>
       <c r="F1086">
-        <v>0.0001831277229323334</v>
+        <v>0.0001831277229323333</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22828,7 +22828,7 @@
         <v>199</v>
       </c>
       <c r="F1087">
-        <v>0.0001687737063522076</v>
+        <v>0.0001687737063522075</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -22868,7 +22868,7 @@
         <v>193</v>
       </c>
       <c r="F1089">
-        <v>0.000443012491259295</v>
+        <v>0.0004430124912592941</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -22888,7 +22888,7 @@
         <v>194</v>
       </c>
       <c r="F1090">
-        <v>0.0008379135502078502</v>
+        <v>0.0008379135502078494</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -22908,7 +22908,7 @@
         <v>195</v>
       </c>
       <c r="F1091">
-        <v>0.0003035133232117187</v>
+        <v>0.0003035133232117179</v>
       </c>
     </row>
     <row r="1092" spans="1:6">
@@ -22928,7 +22928,7 @@
         <v>196</v>
       </c>
       <c r="F1092">
-        <v>-1.307650130141259E-05</v>
+        <v>-1.307650130141346E-05</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -22948,7 +22948,7 @@
         <v>197</v>
       </c>
       <c r="F1093">
-        <v>0.000611963149565924</v>
+        <v>0.0006119631495659231</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -22988,7 +22988,7 @@
         <v>199</v>
       </c>
       <c r="F1095">
-        <v>0.0002631804243653623</v>
+        <v>0.0002631804243653614</v>
       </c>
     </row>
     <row r="1096" spans="1:6">
@@ -23008,7 +23008,7 @@
         <v>5</v>
       </c>
       <c r="F1096">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1097" spans="1:6">
@@ -23588,7 +23588,7 @@
         <v>200</v>
       </c>
       <c r="F1125">
-        <v>4.326913162461536E-05</v>
+        <v>4.326913162461535E-05</v>
       </c>
     </row>
     <row r="1126" spans="1:6">
@@ -23608,7 +23608,7 @@
         <v>201</v>
       </c>
       <c r="F1126">
-        <v>9.366398600925363E-05</v>
+        <v>9.36639860092536E-05</v>
       </c>
     </row>
     <row r="1127" spans="1:6">
@@ -23628,7 +23628,7 @@
         <v>192</v>
       </c>
       <c r="F1127">
-        <v>-0.0005336274480293715</v>
+        <v>-0.0005336274480293714</v>
       </c>
     </row>
     <row r="1128" spans="1:6">
@@ -23648,7 +23648,7 @@
         <v>202</v>
       </c>
       <c r="F1128">
-        <v>-5.658016753110813E-06</v>
+        <v>-5.658016753110811E-06</v>
       </c>
     </row>
     <row r="1129" spans="1:6">
@@ -23668,7 +23668,7 @@
         <v>203</v>
       </c>
       <c r="F1129">
-        <v>3.732487079230202E-05</v>
+        <v>3.732487079230201E-05</v>
       </c>
     </row>
     <row r="1130" spans="1:6">
@@ -23708,7 +23708,7 @@
         <v>205</v>
       </c>
       <c r="F1131">
-        <v>8.200727813307545E-05</v>
+        <v>8.200727813307543E-05</v>
       </c>
     </row>
     <row r="1132" spans="1:6">
@@ -23728,7 +23728,7 @@
         <v>206</v>
       </c>
       <c r="F1132">
-        <v>9.836257608953445E-05</v>
+        <v>9.836257608953443E-05</v>
       </c>
     </row>
     <row r="1133" spans="1:6">
@@ -23748,7 +23748,7 @@
         <v>207</v>
       </c>
       <c r="F1133">
-        <v>1.137120614198008E-05</v>
+        <v>1.137120614198007E-05</v>
       </c>
     </row>
     <row r="1134" spans="1:6">
@@ -23768,7 +23768,7 @@
         <v>208</v>
       </c>
       <c r="F1134">
-        <v>6.405152659461713E-06</v>
+        <v>6.405152659461711E-06</v>
       </c>
     </row>
     <row r="1135" spans="1:6">
@@ -23788,7 +23788,7 @@
         <v>209</v>
       </c>
       <c r="F1135">
-        <v>-2.234753750148408E-05</v>
+        <v>-2.234753750148407E-05</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -23808,7 +23808,7 @@
         <v>210</v>
       </c>
       <c r="F1136">
-        <v>1.622094144034032E-05</v>
+        <v>1.622094144034031E-05</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -23828,7 +23828,7 @@
         <v>211</v>
       </c>
       <c r="F1137">
-        <v>-6.853149256078848E-06</v>
+        <v>-6.853149256078847E-06</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
@@ -23848,7 +23848,7 @@
         <v>212</v>
       </c>
       <c r="F1138">
-        <v>-6.540365946069995E-05</v>
+        <v>-6.540365946069993E-05</v>
       </c>
     </row>
     <row r="1139" spans="1:6">
@@ -23868,7 +23868,7 @@
         <v>213</v>
       </c>
       <c r="F1139">
-        <v>-5.713582654237567E-05</v>
+        <v>-5.713582654237565E-05</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -23888,7 +23888,7 @@
         <v>214</v>
       </c>
       <c r="F1140">
-        <v>4.17722186171558E-05</v>
+        <v>4.177221861715579E-05</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -23908,7 +23908,7 @@
         <v>197</v>
       </c>
       <c r="F1141">
-        <v>-7.014764076302911E-05</v>
+        <v>-7.014764076302909E-05</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -23928,7 +23928,7 @@
         <v>215</v>
       </c>
       <c r="F1142">
-        <v>6.430563384044288E-05</v>
+        <v>6.430563384044286E-05</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23968,7 +23968,7 @@
         <v>217</v>
       </c>
       <c r="F1144">
-        <v>-1.826160653145405E-05</v>
+        <v>-1.826160653145404E-05</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -24068,7 +24068,7 @@
         <v>222</v>
       </c>
       <c r="F1149">
-        <v>-3.530846560899072E-05</v>
+        <v>-3.530846560899071E-05</v>
       </c>
     </row>
     <row r="1150" spans="1:6">
@@ -24108,7 +24108,7 @@
         <v>224</v>
       </c>
       <c r="F1151">
-        <v>-3.064940868012761E-05</v>
+        <v>-3.06494086801276E-05</v>
       </c>
     </row>
     <row r="1152" spans="1:6">
@@ -24128,7 +24128,7 @@
         <v>225</v>
       </c>
       <c r="F1152">
-        <v>-4.237181063261642E-05</v>
+        <v>-4.237181063261641E-05</v>
       </c>
     </row>
     <row r="1153" spans="1:6">
@@ -24148,7 +24148,7 @@
         <v>200</v>
       </c>
       <c r="F1153">
-        <v>4.025646275939267E-05</v>
+        <v>4.02564627593918E-05</v>
       </c>
     </row>
     <row r="1154" spans="1:6">
@@ -24168,7 +24168,7 @@
         <v>201</v>
       </c>
       <c r="F1154">
-        <v>0.0001518589778323701</v>
+        <v>0.0001518589778323693</v>
       </c>
     </row>
     <row r="1155" spans="1:6">
@@ -24208,7 +24208,7 @@
         <v>202</v>
       </c>
       <c r="F1156">
-        <v>7.99499191388056E-05</v>
+        <v>7.994991913880473E-05</v>
       </c>
     </row>
     <row r="1157" spans="1:6">
@@ -24228,7 +24228,7 @@
         <v>203</v>
       </c>
       <c r="F1157">
-        <v>1.736721271987937E-05</v>
+        <v>1.736721271987851E-05</v>
       </c>
     </row>
     <row r="1158" spans="1:6">
@@ -24248,7 +24248,7 @@
         <v>204</v>
       </c>
       <c r="F1158">
-        <v>-2.353018059513294E-05</v>
+        <v>-2.35301805951338E-05</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -24268,7 +24268,7 @@
         <v>205</v>
       </c>
       <c r="F1159">
-        <v>0.0001832146292631066</v>
+        <v>0.0001832146292631057</v>
       </c>
     </row>
     <row r="1160" spans="1:6">
@@ -24288,7 +24288,7 @@
         <v>206</v>
       </c>
       <c r="F1160">
-        <v>0.0001617223150431565</v>
+        <v>0.0001617223150431552</v>
       </c>
     </row>
     <row r="1161" spans="1:6">
@@ -24308,7 +24308,7 @@
         <v>207</v>
       </c>
       <c r="F1161">
-        <v>5.993896916906038E-05</v>
+        <v>5.993896916905951E-05</v>
       </c>
     </row>
     <row r="1162" spans="1:6">
@@ -24328,7 +24328,7 @@
         <v>208</v>
       </c>
       <c r="F1162">
-        <v>4.782383740896011E-05</v>
+        <v>4.782383740895924E-05</v>
       </c>
     </row>
     <row r="1163" spans="1:6">
@@ -24348,7 +24348,7 @@
         <v>209</v>
       </c>
       <c r="F1163">
-        <v>7.103404110914927E-06</v>
+        <v>7.10340411091406E-06</v>
       </c>
     </row>
     <row r="1164" spans="1:6">
@@ -24368,7 +24368,7 @@
         <v>210</v>
       </c>
       <c r="F1164">
-        <v>-1.435969937476928E-05</v>
+        <v>-1.435969937477015E-05</v>
       </c>
     </row>
     <row r="1165" spans="1:6">
@@ -24388,7 +24388,7 @@
         <v>211</v>
       </c>
       <c r="F1165">
-        <v>-9.2457944691135E-06</v>
+        <v>-9.245794469114367E-06</v>
       </c>
     </row>
     <row r="1166" spans="1:6">
@@ -24408,7 +24408,7 @@
         <v>212</v>
       </c>
       <c r="F1166">
-        <v>-3.725370257254713E-05</v>
+        <v>-3.725370257254799E-05</v>
       </c>
     </row>
     <row r="1167" spans="1:6">
@@ -24428,7 +24428,7 @@
         <v>213</v>
       </c>
       <c r="F1167">
-        <v>-6.924600994149361E-05</v>
+        <v>-6.924600994149448E-05</v>
       </c>
     </row>
     <row r="1168" spans="1:6">
@@ -24448,7 +24448,7 @@
         <v>214</v>
       </c>
       <c r="F1168">
-        <v>0.0001383529081188917</v>
+        <v>0.0001383529081188909</v>
       </c>
     </row>
     <row r="1169" spans="1:6">
@@ -24468,7 +24468,7 @@
         <v>197</v>
       </c>
       <c r="F1169">
-        <v>-7.599671676523576E-05</v>
+        <v>-7.599671676523662E-05</v>
       </c>
     </row>
     <row r="1170" spans="1:6">
@@ -24488,7 +24488,7 @@
         <v>215</v>
       </c>
       <c r="F1170">
-        <v>0.0002788293225698402</v>
+        <v>0.0002788293225698393</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -24508,7 +24508,7 @@
         <v>216</v>
       </c>
       <c r="F1171">
-        <v>0.0004067733823028869</v>
+        <v>0.000406773382302886</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -24528,7 +24528,7 @@
         <v>217</v>
       </c>
       <c r="F1172">
-        <v>-6.350760979719665E-05</v>
+        <v>-6.350760979719752E-05</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -24568,7 +24568,7 @@
         <v>219</v>
       </c>
       <c r="F1174">
-        <v>0.0002108852477918249</v>
+        <v>0.000210885247791824</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24588,7 +24588,7 @@
         <v>220</v>
       </c>
       <c r="F1175">
-        <v>0.0001032088880175293</v>
+        <v>0.0001032088880175285</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24608,7 +24608,7 @@
         <v>221</v>
       </c>
       <c r="F1176">
-        <v>0.0003658291170662875</v>
+        <v>0.0003658291170662866</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24628,7 +24628,7 @@
         <v>222</v>
       </c>
       <c r="F1177">
-        <v>0.0001381888038883674</v>
+        <v>0.0001381888038883665</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24648,7 +24648,7 @@
         <v>223</v>
       </c>
       <c r="F1178">
-        <v>-0.0002785863890835912</v>
+        <v>-0.0002785863890835921</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24668,7 +24668,7 @@
         <v>224</v>
       </c>
       <c r="F1179">
-        <v>4.12461841990501E-05</v>
+        <v>4.124618419904923E-05</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -24688,7 +24688,7 @@
         <v>225</v>
       </c>
       <c r="F1180">
-        <v>0.000131390416960522</v>
+        <v>0.0001313904169605211</v>
       </c>
     </row>
     <row r="1181" spans="1:6">
@@ -25288,7 +25288,7 @@
         <v>200</v>
       </c>
       <c r="F1210">
-        <v>6.119634801426794E-05</v>
+        <v>6.119634801426793E-05</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -25328,7 +25328,7 @@
         <v>192</v>
       </c>
       <c r="F1212">
-        <v>-0.0007547193528837406</v>
+        <v>-0.0007547193528837404</v>
       </c>
     </row>
     <row r="1213" spans="1:6">
@@ -25348,7 +25348,7 @@
         <v>202</v>
       </c>
       <c r="F1213">
-        <v>-8.002239686662666E-06</v>
+        <v>-8.002239686662664E-06</v>
       </c>
     </row>
     <row r="1214" spans="1:6">
@@ -25368,7 +25368,7 @@
         <v>203</v>
       </c>
       <c r="F1214">
-        <v>5.278926793376811E-05</v>
+        <v>5.27892679337681E-05</v>
       </c>
     </row>
     <row r="1215" spans="1:6">
@@ -25388,7 +25388,7 @@
         <v>204</v>
       </c>
       <c r="F1215">
-        <v>-2.493461070329222E-05</v>
+        <v>-2.493461070329221E-05</v>
       </c>
     </row>
     <row r="1216" spans="1:6">
@@ -25468,7 +25468,7 @@
         <v>208</v>
       </c>
       <c r="F1219">
-        <v>9.058928074487727E-06</v>
+        <v>9.058928074487726E-06</v>
       </c>
     </row>
     <row r="1220" spans="1:6">
@@ -25488,7 +25488,7 @@
         <v>209</v>
       </c>
       <c r="F1220">
-        <v>-3.160654329898124E-05</v>
+        <v>-3.160654329898123E-05</v>
       </c>
     </row>
     <row r="1221" spans="1:6">
@@ -25528,7 +25528,7 @@
         <v>211</v>
       </c>
       <c r="F1222">
-        <v>-9.692538100998943E-06</v>
+        <v>-9.692538100998941E-06</v>
       </c>
     </row>
     <row r="1223" spans="1:6">
@@ -25548,7 +25548,7 @@
         <v>212</v>
       </c>
       <c r="F1223">
-        <v>-9.250162773053437E-05</v>
+        <v>-9.250162773053436E-05</v>
       </c>
     </row>
     <row r="1224" spans="1:6">
@@ -25568,7 +25568,7 @@
         <v>213</v>
       </c>
       <c r="F1224">
-        <v>-8.080827587445605E-05</v>
+        <v>-8.080827587445604E-05</v>
       </c>
     </row>
     <row r="1225" spans="1:6">
@@ -25588,7 +25588,7 @@
         <v>214</v>
       </c>
       <c r="F1225">
-        <v>5.907923574711381E-05</v>
+        <v>5.90792357471138E-05</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -25608,7 +25608,7 @@
         <v>197</v>
       </c>
       <c r="F1226">
-        <v>-9.921112985942292E-05</v>
+        <v>-9.921112985942291E-05</v>
       </c>
     </row>
     <row r="1227" spans="1:6">
@@ -25628,7 +25628,7 @@
         <v>215</v>
       </c>
       <c r="F1227">
-        <v>9.094866940983613E-05</v>
+        <v>9.094866940983611E-05</v>
       </c>
     </row>
     <row r="1228" spans="1:6">
@@ -25688,7 +25688,7 @@
         <v>218</v>
       </c>
       <c r="F1230">
-        <v>0.0002647521732522938</v>
+        <v>0.0002647521732522937</v>
       </c>
     </row>
     <row r="1231" spans="1:6">
@@ -25708,7 +25708,7 @@
         <v>219</v>
       </c>
       <c r="F1231">
-        <v>0.0001486319063801319</v>
+        <v>0.0001486319063801318</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -25728,7 +25728,7 @@
         <v>220</v>
       </c>
       <c r="F1232">
-        <v>3.040736586939165E-05</v>
+        <v>3.040736586939164E-05</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25748,7 +25748,7 @@
         <v>221</v>
       </c>
       <c r="F1233">
-        <v>0.0002261860510203756</v>
+        <v>0.0002261860510203755</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25768,7 +25768,7 @@
         <v>222</v>
       </c>
       <c r="F1234">
-        <v>-4.993742809546886E-05</v>
+        <v>-4.993742809546885E-05</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25808,7 +25808,7 @@
         <v>224</v>
       </c>
       <c r="F1236">
-        <v>-4.334803610788404E-05</v>
+        <v>-4.334803610788403E-05</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25828,7 +25828,7 @@
         <v>225</v>
       </c>
       <c r="F1237">
-        <v>-5.992725003043792E-05</v>
+        <v>-5.992725003043791E-05</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25848,7 +25848,7 @@
         <v>200</v>
       </c>
       <c r="F1238">
-        <v>5.693547368179099E-05</v>
+        <v>5.693547368179012E-05</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25868,7 +25868,7 @@
         <v>201</v>
       </c>
       <c r="F1239">
-        <v>0.0002147770132561178</v>
+        <v>0.0002147770132561169</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25908,7 +25908,7 @@
         <v>202</v>
       </c>
       <c r="F1241">
-        <v>0.000113074676833763</v>
+        <v>0.0001130746768337621</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25928,7 +25928,7 @@
         <v>203</v>
       </c>
       <c r="F1242">
-        <v>2.456277613482188E-05</v>
+        <v>2.456277613482102E-05</v>
       </c>
     </row>
     <row r="1243" spans="1:6">
@@ -25948,7 +25948,7 @@
         <v>204</v>
       </c>
       <c r="F1243">
-        <v>-3.32791777064266E-05</v>
+        <v>-3.327917770642747E-05</v>
       </c>
     </row>
     <row r="1244" spans="1:6">
@@ -25968,7 +25968,7 @@
         <v>205</v>
       </c>
       <c r="F1244">
-        <v>0.0002591239017912649</v>
+        <v>0.0002591239017912641</v>
       </c>
     </row>
     <row r="1245" spans="1:6">
@@ -25988,7 +25988,7 @@
         <v>206</v>
       </c>
       <c r="F1245">
-        <v>0.0002287269168911145</v>
+        <v>0.0002287269168911128</v>
       </c>
     </row>
     <row r="1246" spans="1:6">
@@ -26008,7 +26008,7 @@
         <v>207</v>
       </c>
       <c r="F1246">
-        <v>8.477281330045421E-05</v>
+        <v>8.477281330045335E-05</v>
       </c>
     </row>
     <row r="1247" spans="1:6">
@@ -26028,7 +26028,7 @@
         <v>208</v>
       </c>
       <c r="F1247">
-        <v>6.763815421226369E-05</v>
+        <v>6.763815421226282E-05</v>
       </c>
     </row>
     <row r="1248" spans="1:6">
@@ -26048,7 +26048,7 @@
         <v>209</v>
       </c>
       <c r="F1248">
-        <v>1.004647825680448E-05</v>
+        <v>1.004647825680362E-05</v>
       </c>
     </row>
     <row r="1249" spans="1:6">
@@ -26068,7 +26068,7 @@
         <v>210</v>
       </c>
       <c r="F1249">
-        <v>-2.030919335156527E-05</v>
+        <v>-2.030919335156613E-05</v>
       </c>
     </row>
     <row r="1250" spans="1:6">
@@ -26088,7 +26088,7 @@
         <v>211</v>
       </c>
       <c r="F1250">
-        <v>-1.307650130141259E-05</v>
+        <v>-1.307650130141346E-05</v>
       </c>
     </row>
     <row r="1251" spans="1:6">
@@ -26108,7 +26108,7 @@
         <v>212</v>
       </c>
       <c r="F1251">
-        <v>-5.268861337981347E-05</v>
+        <v>-5.268861337981434E-05</v>
       </c>
     </row>
     <row r="1252" spans="1:6">
@@ -26128,7 +26128,7 @@
         <v>213</v>
       </c>
       <c r="F1252">
-        <v>-9.793593640248545E-05</v>
+        <v>-9.793593640248632E-05</v>
       </c>
     </row>
     <row r="1253" spans="1:6">
@@ -26148,7 +26148,7 @@
         <v>214</v>
       </c>
       <c r="F1253">
-        <v>0.0001956751244162509</v>
+        <v>0.0001956751244162501</v>
       </c>
     </row>
     <row r="1254" spans="1:6">
@@ -26168,7 +26168,7 @@
         <v>197</v>
       </c>
       <c r="F1254">
-        <v>-0.0001074835882414931</v>
+        <v>-0.0001074835882414939</v>
       </c>
     </row>
     <row r="1255" spans="1:6">
@@ -26188,7 +26188,7 @@
         <v>215</v>
       </c>
       <c r="F1255">
-        <v>0.0003943535638431753</v>
+        <v>0.0003943535638431745</v>
       </c>
     </row>
     <row r="1256" spans="1:6">
@@ -26208,7 +26208,7 @@
         <v>216</v>
       </c>
       <c r="F1256">
-        <v>0.0005753072578925274</v>
+        <v>0.0005753072578925265</v>
       </c>
     </row>
     <row r="1257" spans="1:6">
@@ -26228,7 +26228,7 @@
         <v>217</v>
       </c>
       <c r="F1257">
-        <v>-8.982000897130634E-05</v>
+        <v>-8.982000897130721E-05</v>
       </c>
     </row>
     <row r="1258" spans="1:6">
@@ -26268,7 +26268,7 @@
         <v>219</v>
       </c>
       <c r="F1259">
-        <v>0.0002982589788698671</v>
+        <v>0.0002982589788698663</v>
       </c>
     </row>
     <row r="1260" spans="1:6">
@@ -26288,7 +26288,7 @@
         <v>220</v>
       </c>
       <c r="F1260">
-        <v>0.0001459702747002483</v>
+        <v>0.0001459702747002474</v>
       </c>
     </row>
     <row r="1261" spans="1:6">
@@ -26308,7 +26308,7 @@
         <v>221</v>
       </c>
       <c r="F1261">
-        <v>0.0005173990122095476</v>
+        <v>0.0005173990122095467</v>
       </c>
     </row>
     <row r="1262" spans="1:6">
@@ -26328,7 +26328,7 @@
         <v>222</v>
       </c>
       <c r="F1262">
-        <v>0.0001954430287114204</v>
+        <v>0.0001954430287114195</v>
       </c>
     </row>
     <row r="1263" spans="1:6">
@@ -26348,7 +26348,7 @@
         <v>223</v>
       </c>
       <c r="F1263">
-        <v>-0.0003940099784368913</v>
+        <v>-0.0003940099784368921</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -26368,7 +26368,7 @@
         <v>224</v>
       </c>
       <c r="F1264">
-        <v>5.833525535949794E-05</v>
+        <v>5.833525535949707E-05</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -26388,7 +26388,7 @@
         <v>225</v>
       </c>
       <c r="F1265">
-        <v>0.0001858279420029231</v>
+        <v>0.0001858279420029222</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -26408,7 +26408,7 @@
         <v>5</v>
       </c>
       <c r="F1266">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -26588,7 +26588,7 @@
         <v>227</v>
       </c>
       <c r="F1275">
-        <v>6.630198855993395E-05</v>
+        <v>6.630198855993392E-05</v>
       </c>
     </row>
     <row r="1276" spans="1:6">
@@ -26628,7 +26628,7 @@
         <v>229</v>
       </c>
       <c r="F1277">
-        <v>6.072036044206658E-05</v>
+        <v>6.072036044206657E-05</v>
       </c>
     </row>
     <row r="1278" spans="1:6">
@@ -26668,7 +26668,7 @@
         <v>231</v>
       </c>
       <c r="F1279">
-        <v>7.448837281603231E-06</v>
+        <v>7.44883728160323E-06</v>
       </c>
     </row>
     <row r="1280" spans="1:6">
@@ -26688,7 +26688,7 @@
         <v>232</v>
       </c>
       <c r="F1280">
-        <v>-6.082828739788345E-05</v>
+        <v>-6.082828739788344E-05</v>
       </c>
     </row>
     <row r="1281" spans="1:6">
@@ -26708,7 +26708,7 @@
         <v>226</v>
       </c>
       <c r="F1281">
-        <v>1.842449803834967E-14</v>
+        <v>1.842363067661168E-14</v>
       </c>
     </row>
     <row r="1282" spans="1:6">
@@ -26728,7 +26728,7 @@
         <v>227</v>
       </c>
       <c r="F1282">
-        <v>0.0001351497453399271</v>
+        <v>0.0001351497453399263</v>
       </c>
     </row>
     <row r="1283" spans="1:6">
@@ -26748,7 +26748,7 @@
         <v>228</v>
       </c>
       <c r="F1283">
-        <v>-4.519463828379488E-06</v>
+        <v>-4.519463828380355E-06</v>
       </c>
     </row>
     <row r="1284" spans="1:6">
@@ -26768,7 +26768,7 @@
         <v>229</v>
       </c>
       <c r="F1284">
-        <v>3.177471765080818E-05</v>
+        <v>3.177471765080731E-05</v>
       </c>
     </row>
     <row r="1285" spans="1:6">
@@ -26788,7 +26788,7 @@
         <v>230</v>
       </c>
       <c r="F1285">
-        <v>1.454636044752365E-05</v>
+        <v>1.454636044752279E-05</v>
       </c>
     </row>
     <row r="1286" spans="1:6">
@@ -26808,7 +26808,7 @@
         <v>231</v>
       </c>
       <c r="F1286">
-        <v>2.024389476791219E-05</v>
+        <v>2.024389476791176E-05</v>
       </c>
     </row>
     <row r="1287" spans="1:6">
@@ -26828,7 +26828,7 @@
         <v>232</v>
       </c>
       <c r="F1287">
-        <v>0.002536282986161966</v>
+        <v>0.002536282986161965</v>
       </c>
     </row>
     <row r="1288" spans="1:6">
@@ -27008,7 +27008,7 @@
         <v>226</v>
       </c>
       <c r="F1296">
-        <v>2.285536177407577E-05</v>
+        <v>2.285536177407576E-05</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -27028,7 +27028,7 @@
         <v>227</v>
       </c>
       <c r="F1297">
-        <v>9.377215149941891E-05</v>
+        <v>9.37721514994189E-05</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -27068,7 +27068,7 @@
         <v>229</v>
       </c>
       <c r="F1299">
-        <v>8.587794969868493E-05</v>
+        <v>8.587794969868491E-05</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -27088,7 +27088,7 @@
         <v>230</v>
       </c>
       <c r="F1300">
-        <v>1.525992647438968E-05</v>
+        <v>1.525992647438967E-05</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -27128,7 +27128,7 @@
         <v>232</v>
       </c>
       <c r="F1302">
-        <v>-8.60305928255586E-05</v>
+        <v>-8.603059282555858E-05</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -27148,7 +27148,7 @@
         <v>226</v>
       </c>
       <c r="F1303">
-        <v>2.605814869438561E-14</v>
+        <v>2.605728133264762E-14</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -27168,7 +27168,7 @@
         <v>227</v>
       </c>
       <c r="F1304">
-        <v>0.0001911448309528073</v>
+        <v>0.0001911448309528064</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -27188,7 +27188,7 @@
         <v>228</v>
       </c>
       <c r="F1305">
-        <v>-6.391962835743115E-06</v>
+        <v>-6.391962835743982E-06</v>
       </c>
     </row>
     <row r="1306" spans="1:6">
@@ -27208,7 +27208,7 @@
         <v>229</v>
       </c>
       <c r="F1306">
-        <v>4.493958178508357E-05</v>
+        <v>4.49395817850827E-05</v>
       </c>
     </row>
     <row r="1307" spans="1:6">
@@ -27228,7 +27228,7 @@
         <v>230</v>
       </c>
       <c r="F1307">
-        <v>2.057319162331473E-05</v>
+        <v>2.057319162331386E-05</v>
       </c>
     </row>
     <row r="1308" spans="1:6">
@@ -27268,7 +27268,7 @@
         <v>232</v>
       </c>
       <c r="F1309">
-        <v>0.003587112808973877</v>
+        <v>0.003587112808973876</v>
       </c>
     </row>
     <row r="1310" spans="1:6">
@@ -27288,7 +27288,7 @@
         <v>5</v>
       </c>
       <c r="F1310">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1311" spans="1:6">
@@ -27388,7 +27388,7 @@
         <v>233</v>
       </c>
       <c r="F1315">
-        <v>0.0002354117372376165</v>
+        <v>0.0002354117372376164</v>
       </c>
     </row>
     <row r="1316" spans="1:6">
@@ -27448,7 +27448,7 @@
         <v>236</v>
       </c>
       <c r="F1318">
-        <v>-8.871322180740591E-06</v>
+        <v>-8.871322180740589E-06</v>
       </c>
     </row>
     <row r="1319" spans="1:6">
@@ -27468,7 +27468,7 @@
         <v>233</v>
       </c>
       <c r="F1319">
-        <v>0.002223688361726935</v>
+        <v>0.002223688361726934</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -27488,7 +27488,7 @@
         <v>234</v>
       </c>
       <c r="F1320">
-        <v>-0.0001820962657786487</v>
+        <v>-0.0001820962657786496</v>
       </c>
     </row>
     <row r="1321" spans="1:6">
@@ -27508,7 +27508,7 @@
         <v>235</v>
       </c>
       <c r="F1321">
-        <v>1.842449803834967E-14</v>
+        <v>1.842363067661168E-14</v>
       </c>
     </row>
     <row r="1322" spans="1:6">
@@ -27528,7 +27528,7 @@
         <v>236</v>
       </c>
       <c r="F1322">
-        <v>-1.162877912361596E-06</v>
+        <v>-1.162877912362463E-06</v>
       </c>
     </row>
     <row r="1323" spans="1:6">
@@ -27668,7 +27668,7 @@
         <v>234</v>
       </c>
       <c r="F1329">
-        <v>-0.000218363181056446</v>
+        <v>-0.0002183631810564459</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -27688,7 +27688,7 @@
         <v>235</v>
       </c>
       <c r="F1330">
-        <v>2.285536177407577E-05</v>
+        <v>2.285536177407576E-05</v>
       </c>
     </row>
     <row r="1331" spans="1:6">
@@ -27728,7 +27728,7 @@
         <v>233</v>
       </c>
       <c r="F1332">
-        <v>0.00314500434259012</v>
+        <v>0.003145004342590119</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -27748,7 +27748,7 @@
         <v>234</v>
       </c>
       <c r="F1333">
-        <v>-0.0002575421792460775</v>
+        <v>-0.0002575421792460784</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -27768,7 +27768,7 @@
         <v>235</v>
       </c>
       <c r="F1334">
-        <v>2.605814869438561E-14</v>
+        <v>2.605728133264762E-14</v>
       </c>
     </row>
     <row r="1335" spans="1:6">
@@ -27788,7 +27788,7 @@
         <v>236</v>
       </c>
       <c r="F1335">
-        <v>-1.644680139190058E-06</v>
+        <v>-1.644680139190925E-06</v>
       </c>
     </row>
     <row r="1336" spans="1:6">
@@ -27808,7 +27808,7 @@
         <v>5</v>
       </c>
       <c r="F1336">
-        <v>0.003340684715031484</v>
+        <v>0.003340684715031483</v>
       </c>
     </row>
     <row r="1337" spans="1:6">
@@ -27868,7 +27868,7 @@
         <v>237</v>
       </c>
       <c r="F1339">
-        <v>0.000248836677078649</v>
+        <v>0.0002488366770786488</v>
       </c>
     </row>
     <row r="1340" spans="1:6">
@@ -27908,7 +27908,7 @@
         <v>237</v>
       </c>
       <c r="F1341">
-        <v>0.002609221583499574</v>
+        <v>0.002609221583499573</v>
       </c>
     </row>
     <row r="1342" spans="1:6">
@@ -27928,7 +27928,7 @@
         <v>238</v>
       </c>
       <c r="F1342">
-        <v>7.563750064694527E-05</v>
+        <v>7.56375006469444E-05</v>
       </c>
     </row>
     <row r="1343" spans="1:6">
@@ -28048,7 +28048,7 @@
         <v>237</v>
       </c>
       <c r="F1348">
-        <v>0.003690271241296229</v>
+        <v>0.003690271241296228</v>
       </c>
     </row>
     <row r="1349" spans="1:6">
@@ -28068,7 +28068,7 @@
         <v>238</v>
       </c>
       <c r="F1349">
-        <v>0.0001069755421180358</v>
+        <v>0.000106975542118035</v>
       </c>
     </row>
   </sheetData>
